--- a/data/normative-effects.xlsx
+++ b/data/normative-effects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephen.wood/Box Sync/Work/The Nature Conservancy/Global Soils/AgEvidence/code-and-data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C305A4-2BE9-C345-B6DF-AE550CB27206}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4122DAAD-04F3-184A-9425-D4D4E66EC2F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2520" yWindow="460" windowWidth="19200" windowHeight="14560" xr2:uid="{E2614878-5E79-439B-BF47-44ECB7DBED54}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$210</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="213">
   <si>
     <t>Review</t>
   </si>
@@ -664,6 +664,9 @@
   </si>
   <si>
     <t>Pest Management</t>
+  </si>
+  <si>
+    <t>Methane oxidation</t>
   </si>
 </sst>
 </file>
@@ -725,7 +728,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -798,13 +801,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -885,6 +899,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1201,12 +1218,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5790928A-FDEF-4501-A63F-C28CBDB4D383}">
-  <dimension ref="A1:K209"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K210"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E175" sqref="E175"/>
+      <selection pane="bottomLeft" activeCell="F210" sqref="F210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1328,7 +1346,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>190</v>
       </c>
@@ -1349,7 +1367,7 @@
       </c>
       <c r="G5" s="36"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>190</v>
       </c>
@@ -1391,7 +1409,7 @@
       </c>
       <c r="G7" s="36"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>190</v>
       </c>
@@ -1444,7 +1462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>190</v>
       </c>
@@ -1465,7 +1483,7 @@
       </c>
       <c r="G10" s="36"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>190</v>
       </c>
@@ -1486,7 +1504,7 @@
       </c>
       <c r="G11" s="36"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>190</v>
       </c>
@@ -1507,7 +1525,7 @@
       </c>
       <c r="G12" s="36"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>190</v>
       </c>
@@ -1528,7 +1546,7 @@
       </c>
       <c r="G13" s="36"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>190</v>
       </c>
@@ -1549,7 +1567,7 @@
       </c>
       <c r="G14" s="36"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>190</v>
       </c>
@@ -1570,7 +1588,7 @@
       </c>
       <c r="G15" s="36"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>190</v>
       </c>
@@ -1602,7 +1620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>190</v>
       </c>
@@ -1623,7 +1641,7 @@
       </c>
       <c r="G17" s="36"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>190</v>
       </c>
@@ -1686,7 +1704,7 @@
       </c>
       <c r="G20" s="36"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>190</v>
       </c>
@@ -1707,7 +1725,7 @@
       </c>
       <c r="G21" s="36"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>190</v>
       </c>
@@ -1728,7 +1746,7 @@
       </c>
       <c r="G22" s="36"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>190</v>
       </c>
@@ -1749,7 +1767,7 @@
       </c>
       <c r="G23" s="36"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>190</v>
       </c>
@@ -1770,7 +1788,7 @@
       </c>
       <c r="G24" s="36"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>190</v>
       </c>
@@ -1791,7 +1809,7 @@
       </c>
       <c r="G25" s="36"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>190</v>
       </c>
@@ -1812,7 +1830,7 @@
       </c>
       <c r="G26" s="36"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>190</v>
       </c>
@@ -1844,7 +1862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>190</v>
       </c>
@@ -1897,7 +1915,7 @@
       </c>
       <c r="G29" s="36"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>190</v>
       </c>
@@ -1918,7 +1936,7 @@
       </c>
       <c r="G30" s="36"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>190</v>
       </c>
@@ -1939,7 +1957,7 @@
       </c>
       <c r="G31" s="36"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>190</v>
       </c>
@@ -1960,7 +1978,7 @@
       </c>
       <c r="G32" s="36"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>190</v>
       </c>
@@ -2002,7 +2020,7 @@
       </c>
       <c r="G34" s="36"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>190</v>
       </c>
@@ -2023,7 +2041,7 @@
       </c>
       <c r="G35" s="36"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>190</v>
       </c>
@@ -2044,7 +2062,7 @@
       </c>
       <c r="G36" s="36"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>190</v>
       </c>
@@ -2065,7 +2083,7 @@
       </c>
       <c r="G37" s="36"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>190</v>
       </c>
@@ -2107,7 +2125,7 @@
       </c>
       <c r="G39" s="36"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
         <v>190</v>
       </c>
@@ -2194,7 +2212,7 @@
       </c>
       <c r="G43" s="36"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
         <v>190</v>
       </c>
@@ -2281,7 +2299,7 @@
       <c r="G46" s="36"/>
       <c r="K46" s="12"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
         <v>190</v>
       </c>
@@ -2303,7 +2321,7 @@
       <c r="G47" s="36"/>
       <c r="K47" s="12"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
         <v>190</v>
       </c>
@@ -2324,7 +2342,7 @@
       </c>
       <c r="G48" s="36"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
         <v>190</v>
       </c>
@@ -2345,7 +2363,7 @@
       </c>
       <c r="G49" s="36"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
         <v>190</v>
       </c>
@@ -2366,7 +2384,7 @@
       </c>
       <c r="G50" s="36"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
         <v>190</v>
       </c>
@@ -2387,7 +2405,7 @@
       </c>
       <c r="G51" s="36"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
         <v>190</v>
       </c>
@@ -2429,7 +2447,7 @@
       </c>
       <c r="G53" s="36"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
         <v>190</v>
       </c>
@@ -2475,7 +2493,7 @@
       <c r="H55" s="40"/>
       <c r="I55" s="40"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
         <v>190</v>
       </c>
@@ -2498,7 +2516,7 @@
       <c r="H56" s="40"/>
       <c r="I56" s="40"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
         <v>190</v>
       </c>
@@ -2523,7 +2541,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
         <v>190</v>
       </c>
@@ -2546,7 +2564,7 @@
       <c r="I58" s="40"/>
       <c r="K58" s="15"/>
     </row>
-    <row r="59" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
         <v>190</v>
       </c>
@@ -2567,7 +2585,7 @@
       </c>
       <c r="G59" s="41"/>
     </row>
-    <row r="60" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
         <v>190</v>
       </c>
@@ -2599,7 +2617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>211</v>
       </c>
@@ -2620,7 +2638,7 @@
       </c>
       <c r="G61" s="36"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>211</v>
       </c>
@@ -2641,7 +2659,7 @@
       </c>
       <c r="G62" s="36"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>211</v>
       </c>
@@ -2662,7 +2680,7 @@
       </c>
       <c r="G63" s="36"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>211</v>
       </c>
@@ -2683,7 +2701,7 @@
       </c>
       <c r="G64" s="36"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>211</v>
       </c>
@@ -2704,7 +2722,7 @@
       </c>
       <c r="G65" s="36"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>211</v>
       </c>
@@ -2725,7 +2743,7 @@
       </c>
       <c r="G66" s="36"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>211</v>
       </c>
@@ -2757,7 +2775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>211</v>
       </c>
@@ -2789,7 +2807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>211</v>
       </c>
@@ -2812,7 +2830,7 @@
       <c r="H69" s="39"/>
       <c r="I69" s="36"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>211</v>
       </c>
@@ -2844,7 +2862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>211</v>
       </c>
@@ -2865,7 +2883,7 @@
       </c>
       <c r="G71" s="36"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>211</v>
       </c>
@@ -2886,7 +2904,7 @@
       </c>
       <c r="G72" s="36"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>211</v>
       </c>
@@ -2907,7 +2925,7 @@
       </c>
       <c r="G73" s="36"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>211</v>
       </c>
@@ -2928,7 +2946,7 @@
       </c>
       <c r="G74" s="36"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>211</v>
       </c>
@@ -2949,7 +2967,7 @@
       </c>
       <c r="G75" s="36"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>211</v>
       </c>
@@ -2970,7 +2988,7 @@
       </c>
       <c r="G76" s="36"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>211</v>
       </c>
@@ -2991,7 +3009,7 @@
       </c>
       <c r="G77" s="36"/>
     </row>
-    <row r="78" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>211</v>
       </c>
@@ -3012,7 +3030,7 @@
       </c>
       <c r="G78" s="38"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>211</v>
       </c>
@@ -3033,7 +3051,7 @@
       </c>
       <c r="G79" s="36"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>211</v>
       </c>
@@ -3054,7 +3072,7 @@
       </c>
       <c r="G80" s="36"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>211</v>
       </c>
@@ -3086,7 +3104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>211</v>
       </c>
@@ -3111,7 +3129,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>211</v>
       </c>
@@ -3153,7 +3171,7 @@
       </c>
       <c r="G84" s="36"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>211</v>
       </c>
@@ -3174,7 +3192,7 @@
       </c>
       <c r="G85" s="36"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>211</v>
       </c>
@@ -3197,7 +3215,7 @@
       <c r="I86" s="40"/>
       <c r="K86" s="15"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>211</v>
       </c>
@@ -3222,7 +3240,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>160</v>
       </c>
@@ -3243,7 +3261,7 @@
       </c>
       <c r="G88" s="36"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>160</v>
       </c>
@@ -3264,7 +3282,7 @@
       </c>
       <c r="G89" s="36"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>160</v>
       </c>
@@ -3285,7 +3303,7 @@
       </c>
       <c r="G90" s="36"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>160</v>
       </c>
@@ -3306,7 +3324,7 @@
       </c>
       <c r="G91" s="36"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>160</v>
       </c>
@@ -3327,7 +3345,7 @@
       </c>
       <c r="G92" s="36"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>160</v>
       </c>
@@ -3348,7 +3366,7 @@
       </c>
       <c r="G93" s="36"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>160</v>
       </c>
@@ -3369,7 +3387,7 @@
       </c>
       <c r="G94" s="36"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>160</v>
       </c>
@@ -3390,7 +3408,7 @@
       </c>
       <c r="G95" s="36"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>160</v>
       </c>
@@ -3411,7 +3429,7 @@
       </c>
       <c r="G96" s="36"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>160</v>
       </c>
@@ -3432,7 +3450,7 @@
       </c>
       <c r="G97" s="36"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>160</v>
       </c>
@@ -3453,7 +3471,7 @@
       </c>
       <c r="G98" s="36"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>160</v>
       </c>
@@ -3474,7 +3492,7 @@
       </c>
       <c r="G99" s="36"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>160</v>
       </c>
@@ -3495,7 +3513,7 @@
       </c>
       <c r="G100" s="36"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>160</v>
       </c>
@@ -3516,7 +3534,7 @@
       </c>
       <c r="G101" s="36"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>160</v>
       </c>
@@ -3537,7 +3555,7 @@
       </c>
       <c r="G102" s="36"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>160</v>
       </c>
@@ -3561,7 +3579,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>160</v>
       </c>
@@ -3582,7 +3600,7 @@
       </c>
       <c r="G104" s="36"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>160</v>
       </c>
@@ -3607,7 +3625,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>160</v>
       </c>
@@ -3628,7 +3646,7 @@
       </c>
       <c r="G106" s="36"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>160</v>
       </c>
@@ -3649,7 +3667,7 @@
       </c>
       <c r="G107" s="36"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>160</v>
       </c>
@@ -3670,7 +3688,7 @@
       </c>
       <c r="G108" s="36"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>160</v>
       </c>
@@ -3691,7 +3709,7 @@
       </c>
       <c r="G109" s="36"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="28" t="s">
         <v>160</v>
       </c>
@@ -3777,7 +3795,7 @@
       </c>
       <c r="G113" s="36"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
         <v>4</v>
       </c>
@@ -3798,7 +3816,7 @@
       </c>
       <c r="G114" s="36"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
         <v>4</v>
       </c>
@@ -3819,7 +3837,7 @@
       </c>
       <c r="G115" s="36"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
         <v>4</v>
       </c>
@@ -3872,7 +3890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="12" t="s">
         <v>4</v>
       </c>
@@ -3893,7 +3911,7 @@
       </c>
       <c r="G118" s="36"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
         <v>4</v>
       </c>
@@ -3914,7 +3932,7 @@
       </c>
       <c r="G119" s="36"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
         <v>4</v>
       </c>
@@ -4012,7 +4030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="15" t="s">
         <v>4</v>
       </c>
@@ -4033,7 +4051,7 @@
       </c>
       <c r="G124" s="38"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
         <v>4</v>
       </c>
@@ -4054,7 +4072,7 @@
       </c>
       <c r="G125" s="36"/>
     </row>
-    <row r="126" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="15" t="s">
         <v>4</v>
       </c>
@@ -4075,7 +4093,7 @@
       </c>
       <c r="G126" s="38"/>
     </row>
-    <row r="127" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="15" t="s">
         <v>4</v>
       </c>
@@ -4096,7 +4114,7 @@
       </c>
       <c r="G127" s="38"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
         <v>4</v>
       </c>
@@ -4117,7 +4135,7 @@
       </c>
       <c r="G128" s="36"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
         <v>4</v>
       </c>
@@ -4138,7 +4156,7 @@
       </c>
       <c r="G129" s="36"/>
     </row>
-    <row r="130" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="15" t="s">
         <v>4</v>
       </c>
@@ -4159,7 +4177,7 @@
       </c>
       <c r="G130" s="40"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
         <v>4</v>
       </c>
@@ -4180,7 +4198,7 @@
       </c>
       <c r="G131" s="36"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
         <v>4</v>
       </c>
@@ -4201,7 +4219,7 @@
       </c>
       <c r="G132" s="36"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
         <v>4</v>
       </c>
@@ -4254,7 +4272,7 @@
       </c>
       <c r="G134" s="36"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
         <v>4</v>
       </c>
@@ -4275,7 +4293,7 @@
       </c>
       <c r="G135" s="36"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
         <v>4</v>
       </c>
@@ -4296,7 +4314,7 @@
       </c>
       <c r="G136" s="36"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
         <v>4</v>
       </c>
@@ -4317,7 +4335,7 @@
       </c>
       <c r="G137" s="36"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
         <v>4</v>
       </c>
@@ -4338,7 +4356,7 @@
       </c>
       <c r="G138" s="36"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="10" t="s">
         <v>4</v>
       </c>
@@ -4370,7 +4388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="12" t="s">
         <v>4</v>
       </c>
@@ -4412,7 +4430,7 @@
       </c>
       <c r="G141" s="36"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="10" t="s">
         <v>4</v>
       </c>
@@ -4433,7 +4451,7 @@
       </c>
       <c r="G142" s="36"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="12" t="s">
         <v>4</v>
       </c>
@@ -4496,7 +4514,7 @@
       </c>
       <c r="G145" s="36"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="27" t="s">
         <v>4</v>
       </c>
@@ -4538,7 +4556,7 @@
       </c>
       <c r="G147" s="36"/>
     </row>
-    <row r="148" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="10" t="s">
         <v>4</v>
       </c>
@@ -4563,7 +4581,7 @@
       <c r="J148" s="37"/>
       <c r="K148" s="10"/>
     </row>
-    <row r="149" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="10" t="s">
         <v>4</v>
       </c>
@@ -4588,7 +4606,7 @@
       <c r="J149" s="37"/>
       <c r="K149" s="10"/>
     </row>
-    <row r="150" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="27" t="s">
         <v>4</v>
       </c>
@@ -4613,7 +4631,7 @@
       <c r="J150" s="37"/>
       <c r="K150" s="10"/>
     </row>
-    <row r="151" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="10" t="s">
         <v>4</v>
       </c>
@@ -4638,7 +4656,7 @@
       <c r="J151" s="37"/>
       <c r="K151" s="10"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="10" t="s">
         <v>4</v>
       </c>
@@ -4670,7 +4688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="27" t="s">
         <v>4</v>
       </c>
@@ -4691,7 +4709,7 @@
       </c>
       <c r="G153" s="36"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="10" t="s">
         <v>4</v>
       </c>
@@ -4712,7 +4730,7 @@
       </c>
       <c r="G154" s="36"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="10" t="s">
         <v>4</v>
       </c>
@@ -4733,7 +4751,7 @@
       </c>
       <c r="G155" s="36"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="10" t="s">
         <v>4</v>
       </c>
@@ -4754,7 +4772,7 @@
       </c>
       <c r="G156" s="36"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="10" t="s">
         <v>4</v>
       </c>
@@ -4796,7 +4814,7 @@
       </c>
       <c r="G158" s="36"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="10" t="s">
         <v>4</v>
       </c>
@@ -4817,7 +4835,7 @@
       </c>
       <c r="G159" s="36"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="10" t="s">
         <v>4</v>
       </c>
@@ -4859,7 +4877,7 @@
       </c>
       <c r="G161" s="36"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="10" t="s">
         <v>4</v>
       </c>
@@ -4880,7 +4898,7 @@
       </c>
       <c r="G162" s="36"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="10" t="s">
         <v>4</v>
       </c>
@@ -4901,7 +4919,7 @@
       </c>
       <c r="G163" s="36"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="10" t="s">
         <v>4</v>
       </c>
@@ -4922,7 +4940,7 @@
       </c>
       <c r="G164" s="36"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="10" t="s">
         <v>4</v>
       </c>
@@ -4954,7 +4972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="10" t="s">
         <v>4</v>
       </c>
@@ -4986,7 +5004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="10" t="s">
         <v>4</v>
       </c>
@@ -5007,7 +5025,7 @@
       </c>
       <c r="G167" s="36"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="10" t="s">
         <v>4</v>
       </c>
@@ -5028,7 +5046,7 @@
       </c>
       <c r="G168" s="36"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="10" t="s">
         <v>4</v>
       </c>
@@ -5049,7 +5067,7 @@
       </c>
       <c r="G169" s="36"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="10" t="s">
         <v>4</v>
       </c>
@@ -5091,7 +5109,7 @@
       </c>
       <c r="G171" s="36"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="10" t="s">
         <v>4</v>
       </c>
@@ -5112,7 +5130,7 @@
       </c>
       <c r="G172" s="36"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="10" t="s">
         <v>4</v>
       </c>
@@ -5133,7 +5151,7 @@
       </c>
       <c r="G173" s="36"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="12" t="s">
         <v>4</v>
       </c>
@@ -5186,7 +5204,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="10" t="s">
         <v>4</v>
       </c>
@@ -5228,7 +5246,7 @@
       </c>
       <c r="G177" s="36"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="10" t="s">
         <v>4</v>
       </c>
@@ -5249,7 +5267,7 @@
       </c>
       <c r="G178" s="36"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="10" t="s">
         <v>4</v>
       </c>
@@ -5291,7 +5309,7 @@
       </c>
       <c r="G180" s="36"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="10" t="s">
         <v>4</v>
       </c>
@@ -5323,7 +5341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="10" t="s">
         <v>4</v>
       </c>
@@ -5388,7 +5406,7 @@
       </c>
       <c r="K183" s="12"/>
     </row>
-    <row r="184" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="15" t="s">
         <v>4</v>
       </c>
@@ -5409,7 +5427,7 @@
       </c>
       <c r="G184" s="38"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="10" t="s">
         <v>4</v>
       </c>
@@ -5430,7 +5448,7 @@
       </c>
       <c r="G185" s="36"/>
     </row>
-    <row r="186" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="15" t="s">
         <v>4</v>
       </c>
@@ -5451,7 +5469,7 @@
       </c>
       <c r="G186" s="38"/>
     </row>
-    <row r="187" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="15" t="s">
         <v>4</v>
       </c>
@@ -5472,7 +5490,7 @@
       </c>
       <c r="G187" s="38"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="10" t="s">
         <v>4</v>
       </c>
@@ -5493,7 +5511,7 @@
       </c>
       <c r="G188" s="36"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="10" t="s">
         <v>4</v>
       </c>
@@ -5514,7 +5532,7 @@
       </c>
       <c r="G189" s="36"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="10" t="s">
         <v>4</v>
       </c>
@@ -5535,7 +5553,7 @@
       </c>
       <c r="G190" s="36"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="10" t="s">
         <v>4</v>
       </c>
@@ -5567,7 +5585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="10" t="s">
         <v>4</v>
       </c>
@@ -5599,7 +5617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="10" t="s">
         <v>4</v>
       </c>
@@ -5620,7 +5638,7 @@
       </c>
       <c r="G193" s="36"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" s="10" t="s">
         <v>4</v>
       </c>
@@ -5641,7 +5659,7 @@
       </c>
       <c r="G194" s="36"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A195" s="10" t="s">
         <v>4</v>
       </c>
@@ -5662,7 +5680,7 @@
       </c>
       <c r="G195" s="36"/>
     </row>
-    <row r="196" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A196" s="10" t="s">
         <v>4</v>
       </c>
@@ -5683,7 +5701,7 @@
       </c>
       <c r="G196" s="36"/>
     </row>
-    <row r="197" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A197" s="18" t="s">
         <v>4</v>
       </c>
@@ -5747,7 +5765,7 @@
       </c>
       <c r="G199" s="36"/>
     </row>
-    <row r="200" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A200" s="18" t="s">
         <v>4</v>
       </c>
@@ -5768,7 +5786,7 @@
       </c>
       <c r="G200" s="36"/>
     </row>
-    <row r="201" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A201" s="18" t="s">
         <v>4</v>
       </c>
@@ -5789,7 +5807,7 @@
       </c>
       <c r="G201" s="36"/>
     </row>
-    <row r="202" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A202" s="18" t="s">
         <v>4</v>
       </c>
@@ -5831,7 +5849,7 @@
       </c>
       <c r="G203" s="36"/>
     </row>
-    <row r="204" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A204" s="18" t="s">
         <v>4</v>
       </c>
@@ -5853,7 +5871,7 @@
       <c r="G204" s="36"/>
       <c r="K204" s="51"/>
     </row>
-    <row r="205" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A205" s="13" t="s">
         <v>4</v>
       </c>
@@ -5927,7 +5945,7 @@
       <c r="I207" s="40"/>
       <c r="K207" s="51"/>
     </row>
-    <row r="208" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A208" s="18" t="s">
         <v>4</v>
       </c>
@@ -5950,7 +5968,7 @@
       <c r="I208" s="40"/>
       <c r="K208" s="35"/>
     </row>
-    <row r="209" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A209" s="18" t="s">
         <v>4</v>
       </c>
@@ -5973,8 +5991,34 @@
       <c r="I209" s="40"/>
       <c r="K209" s="35"/>
     </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A210" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B210" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C210" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D210" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="E210" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="F210" s="54" t="s">
+        <v>187</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K1" xr:uid="{749F81FE-5A40-422C-A0CF-574E71A9CE1E}"/>
+  <autoFilter ref="A1:K210" xr:uid="{749F81FE-5A40-422C-A0CF-574E71A9CE1E}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Other Soil Properties"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K209">
     <sortCondition ref="A2:A209"/>
   </sortState>

--- a/data/normative-effects.xlsx
+++ b/data/normative-effects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephen.wood/Box Sync/Work/The Nature Conservancy/Global Soils/AgEvidence/code-and-data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4122DAAD-04F3-184A-9425-D4D4E66EC2F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6903CF44-C3F5-4C41-96DD-29D8E13A8FE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="460" windowWidth="19200" windowHeight="14560" xr2:uid="{E2614878-5E79-439B-BF47-44ECB7DBED54}"/>
+    <workbookView xWindow="2520" yWindow="460" windowWidth="23900" windowHeight="14560" xr2:uid="{E2614878-5E79-439B-BF47-44ECB7DBED54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="215">
   <si>
     <t>Review</t>
   </si>
@@ -667,13 +667,19 @@
   </si>
   <si>
     <t>Methane oxidation</t>
+  </si>
+  <si>
+    <t>Labile carbon</t>
+  </si>
+  <si>
+    <t>Natural abundance of 13C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -694,6 +700,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -818,7 +830,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -902,6 +914,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1219,12 +1232,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5790928A-FDEF-4501-A63F-C28CBDB4D383}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K210"/>
+  <dimension ref="A1:K213"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F210" sqref="F210"/>
+      <selection pane="bottomLeft" activeCell="E214" sqref="E214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1278,7 +1291,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>190</v>
       </c>
@@ -1301,7 +1314,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>190</v>
       </c>
@@ -1322,7 +1335,7 @@
       </c>
       <c r="G3" s="36"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>190</v>
       </c>
@@ -1388,7 +1401,7 @@
       </c>
       <c r="G6" s="36"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>190</v>
       </c>
@@ -1430,7 +1443,7 @@
       </c>
       <c r="G8" s="36"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>190</v>
       </c>
@@ -1662,7 +1675,7 @@
       </c>
       <c r="G18" s="36"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>190</v>
       </c>
@@ -1683,7 +1696,7 @@
       </c>
       <c r="G19" s="36"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>190</v>
       </c>
@@ -1894,7 +1907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>190</v>
       </c>
@@ -2104,7 +2117,7 @@
       </c>
       <c r="G38" s="36"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>190</v>
       </c>
@@ -2146,7 +2159,7 @@
       </c>
       <c r="G40" s="36"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>190</v>
       </c>
@@ -2167,7 +2180,7 @@
       </c>
       <c r="G41" s="36"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
         <v>190</v>
       </c>
@@ -2191,7 +2204,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>190</v>
       </c>
@@ -2277,7 +2290,7 @@
       </c>
       <c r="K45" s="12"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
         <v>190</v>
       </c>
@@ -2426,7 +2439,7 @@
       </c>
       <c r="G52" s="36"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
         <v>190</v>
       </c>
@@ -2470,7 +2483,7 @@
       <c r="H54" s="40"/>
       <c r="I54" s="40"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
         <v>190</v>
       </c>
@@ -3150,7 +3163,7 @@
       </c>
       <c r="G83" s="36"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>211</v>
       </c>
@@ -3732,7 +3745,7 @@
       <c r="H110" s="40"/>
       <c r="I110" s="40"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="12" t="s">
         <v>4</v>
       </c>
@@ -3753,7 +3766,7 @@
       </c>
       <c r="G111" s="36"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="12" t="s">
         <v>4</v>
       </c>
@@ -3774,7 +3787,7 @@
       </c>
       <c r="G112" s="36"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="s">
         <v>4</v>
       </c>
@@ -3858,7 +3871,7 @@
       </c>
       <c r="G116" s="36"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="12" t="s">
         <v>4</v>
       </c>
@@ -3977,7 +3990,7 @@
       <c r="I121" s="36"/>
       <c r="J121" s="36"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
         <v>4</v>
       </c>
@@ -3998,7 +4011,7 @@
       </c>
       <c r="G122" s="36"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
         <v>4</v>
       </c>
@@ -4251,7 +4264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
         <v>4</v>
       </c>
@@ -4409,7 +4422,7 @@
       </c>
       <c r="G140" s="36"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="12" t="s">
         <v>4</v>
       </c>
@@ -4472,7 +4485,7 @@
       </c>
       <c r="G143" s="36"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="10" t="s">
         <v>4</v>
       </c>
@@ -4493,7 +4506,7 @@
       </c>
       <c r="G144" s="36"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="10" t="s">
         <v>4</v>
       </c>
@@ -4535,7 +4548,7 @@
       </c>
       <c r="G146" s="36"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="12" t="s">
         <v>4</v>
       </c>
@@ -4793,7 +4806,7 @@
       </c>
       <c r="G157" s="36"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="12" t="s">
         <v>4</v>
       </c>
@@ -4856,7 +4869,7 @@
       </c>
       <c r="G160" s="36"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="10" t="s">
         <v>4</v>
       </c>
@@ -5172,7 +5185,7 @@
       </c>
       <c r="G174" s="36"/>
     </row>
-    <row r="175" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="15" t="s">
         <v>4</v>
       </c>
@@ -5225,7 +5238,7 @@
       </c>
       <c r="G176" s="36"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="10" t="s">
         <v>4</v>
       </c>
@@ -5288,7 +5301,7 @@
       </c>
       <c r="G179" s="36"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="10" t="s">
         <v>4</v>
       </c>
@@ -5617,7 +5630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="10" t="s">
         <v>4</v>
       </c>
@@ -5638,7 +5651,7 @@
       </c>
       <c r="G193" s="36"/>
     </row>
-    <row r="194" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="10" t="s">
         <v>4</v>
       </c>
@@ -5659,7 +5672,7 @@
       </c>
       <c r="G194" s="36"/>
     </row>
-    <row r="195" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="10" t="s">
         <v>4</v>
       </c>
@@ -5680,7 +5693,7 @@
       </c>
       <c r="G195" s="36"/>
     </row>
-    <row r="196" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="10" t="s">
         <v>4</v>
       </c>
@@ -5723,7 +5736,7 @@
       <c r="G197" s="36"/>
       <c r="K197" s="51"/>
     </row>
-    <row r="198" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A198" s="18" t="s">
         <v>4</v>
       </c>
@@ -5744,7 +5757,7 @@
       </c>
       <c r="G198" s="36"/>
     </row>
-    <row r="199" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A199" s="18" t="s">
         <v>4</v>
       </c>
@@ -5828,7 +5841,7 @@
       </c>
       <c r="G202" s="36"/>
     </row>
-    <row r="203" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A203" s="16" t="s">
         <v>4</v>
       </c>
@@ -5897,7 +5910,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" s="18" t="s">
         <v>4</v>
       </c>
@@ -5921,7 +5934,7 @@
       <c r="I206" s="40"/>
       <c r="K206" s="51"/>
     </row>
-    <row r="207" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A207" s="16" t="s">
         <v>4</v>
       </c>
@@ -5991,7 +6004,7 @@
       <c r="I209" s="40"/>
       <c r="K209" s="35"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="52" t="s">
         <v>4</v>
       </c>
@@ -6009,6 +6022,66 @@
       </c>
       <c r="F210" s="54" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A211" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D211" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F211" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A212" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D212" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F212" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A213" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D213" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E213" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -6016,6 +6089,11 @@
     <filterColumn colId="1">
       <filters>
         <filter val="Other Soil Properties"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Chemical Properties"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/data/normative-effects.xlsx
+++ b/data/normative-effects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephen.wood/Box Sync/Work/The Nature Conservancy/Global Soils/AgEvidence/code-and-data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6903CF44-C3F5-4C41-96DD-29D8E13A8FE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28A9292-567C-B94D-8A35-B8E3CB707505}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2520" yWindow="460" windowWidth="23900" windowHeight="14560" xr2:uid="{E2614878-5E79-439B-BF47-44ECB7DBED54}"/>
   </bookViews>

--- a/data/normative-effects.xlsx
+++ b/data/normative-effects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephen.wood/Box Sync/Work/The Nature Conservancy/Global Soils/AgEvidence/code-and-data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28A9292-567C-B94D-8A35-B8E3CB707505}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB274283-C69A-1845-82B7-194D45917699}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="460" windowWidth="23900" windowHeight="14560" xr2:uid="{E2614878-5E79-439B-BF47-44ECB7DBED54}"/>
+    <workbookView xWindow="2520" yWindow="460" windowWidth="19200" windowHeight="14560" xr2:uid="{E2614878-5E79-439B-BF47-44ECB7DBED54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="213">
   <si>
     <t>Review</t>
   </si>
@@ -667,19 +667,13 @@
   </si>
   <si>
     <t>Methane oxidation</t>
-  </si>
-  <si>
-    <t>Labile carbon</t>
-  </si>
-  <si>
-    <t>Natural abundance of 13C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,12 +694,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -830,7 +818,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -914,7 +902,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1232,12 +1219,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5790928A-FDEF-4501-A63F-C28CBDB4D383}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K213"/>
+  <dimension ref="A1:K210"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E214" sqref="E214"/>
+      <selection pane="bottomLeft" activeCell="F210" sqref="F210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1291,7 +1278,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>190</v>
       </c>
@@ -1314,7 +1301,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>190</v>
       </c>
@@ -1335,7 +1322,7 @@
       </c>
       <c r="G3" s="36"/>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>190</v>
       </c>
@@ -1401,7 +1388,7 @@
       </c>
       <c r="G6" s="36"/>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>190</v>
       </c>
@@ -1443,7 +1430,7 @@
       </c>
       <c r="G8" s="36"/>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>190</v>
       </c>
@@ -1675,7 +1662,7 @@
       </c>
       <c r="G18" s="36"/>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>190</v>
       </c>
@@ -1696,7 +1683,7 @@
       </c>
       <c r="G19" s="36"/>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>190</v>
       </c>
@@ -1907,7 +1894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>190</v>
       </c>
@@ -2117,7 +2104,7 @@
       </c>
       <c r="G38" s="36"/>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>190</v>
       </c>
@@ -2159,7 +2146,7 @@
       </c>
       <c r="G40" s="36"/>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>190</v>
       </c>
@@ -2180,7 +2167,7 @@
       </c>
       <c r="G41" s="36"/>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
         <v>190</v>
       </c>
@@ -2204,7 +2191,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>190</v>
       </c>
@@ -2290,7 +2277,7 @@
       </c>
       <c r="K45" s="12"/>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
         <v>190</v>
       </c>
@@ -2439,7 +2426,7 @@
       </c>
       <c r="G52" s="36"/>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
         <v>190</v>
       </c>
@@ -2483,7 +2470,7 @@
       <c r="H54" s="40"/>
       <c r="I54" s="40"/>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
         <v>190</v>
       </c>
@@ -3163,7 +3150,7 @@
       </c>
       <c r="G83" s="36"/>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>211</v>
       </c>
@@ -3745,7 +3732,7 @@
       <c r="H110" s="40"/>
       <c r="I110" s="40"/>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="12" t="s">
         <v>4</v>
       </c>
@@ -3766,7 +3753,7 @@
       </c>
       <c r="G111" s="36"/>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="12" t="s">
         <v>4</v>
       </c>
@@ -3787,7 +3774,7 @@
       </c>
       <c r="G112" s="36"/>
     </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="s">
         <v>4</v>
       </c>
@@ -3871,7 +3858,7 @@
       </c>
       <c r="G116" s="36"/>
     </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="12" t="s">
         <v>4</v>
       </c>
@@ -3990,7 +3977,7 @@
       <c r="I121" s="36"/>
       <c r="J121" s="36"/>
     </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
         <v>4</v>
       </c>
@@ -4011,7 +3998,7 @@
       </c>
       <c r="G122" s="36"/>
     </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
         <v>4</v>
       </c>
@@ -4264,7 +4251,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
         <v>4</v>
       </c>
@@ -4422,7 +4409,7 @@
       </c>
       <c r="G140" s="36"/>
     </row>
-    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="12" t="s">
         <v>4</v>
       </c>
@@ -4485,7 +4472,7 @@
       </c>
       <c r="G143" s="36"/>
     </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="10" t="s">
         <v>4</v>
       </c>
@@ -4506,7 +4493,7 @@
       </c>
       <c r="G144" s="36"/>
     </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="10" t="s">
         <v>4</v>
       </c>
@@ -4548,7 +4535,7 @@
       </c>
       <c r="G146" s="36"/>
     </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="12" t="s">
         <v>4</v>
       </c>
@@ -4806,7 +4793,7 @@
       </c>
       <c r="G157" s="36"/>
     </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="12" t="s">
         <v>4</v>
       </c>
@@ -4869,7 +4856,7 @@
       </c>
       <c r="G160" s="36"/>
     </row>
-    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="10" t="s">
         <v>4</v>
       </c>
@@ -5185,7 +5172,7 @@
       </c>
       <c r="G174" s="36"/>
     </row>
-    <row r="175" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="15" t="s">
         <v>4</v>
       </c>
@@ -5238,7 +5225,7 @@
       </c>
       <c r="G176" s="36"/>
     </row>
-    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="10" t="s">
         <v>4</v>
       </c>
@@ -5301,7 +5288,7 @@
       </c>
       <c r="G179" s="36"/>
     </row>
-    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="10" t="s">
         <v>4</v>
       </c>
@@ -5630,7 +5617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="10" t="s">
         <v>4</v>
       </c>
@@ -5651,7 +5638,7 @@
       </c>
       <c r="G193" s="36"/>
     </row>
-    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" s="10" t="s">
         <v>4</v>
       </c>
@@ -5672,7 +5659,7 @@
       </c>
       <c r="G194" s="36"/>
     </row>
-    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A195" s="10" t="s">
         <v>4</v>
       </c>
@@ -5693,7 +5680,7 @@
       </c>
       <c r="G195" s="36"/>
     </row>
-    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A196" s="10" t="s">
         <v>4</v>
       </c>
@@ -5736,7 +5723,7 @@
       <c r="G197" s="36"/>
       <c r="K197" s="51"/>
     </row>
-    <row r="198" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A198" s="18" t="s">
         <v>4</v>
       </c>
@@ -5757,7 +5744,7 @@
       </c>
       <c r="G198" s="36"/>
     </row>
-    <row r="199" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A199" s="18" t="s">
         <v>4</v>
       </c>
@@ -5841,7 +5828,7 @@
       </c>
       <c r="G202" s="36"/>
     </row>
-    <row r="203" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A203" s="16" t="s">
         <v>4</v>
       </c>
@@ -5910,7 +5897,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" s="18" t="s">
         <v>4</v>
       </c>
@@ -5934,7 +5921,7 @@
       <c r="I206" s="40"/>
       <c r="K206" s="51"/>
     </row>
-    <row r="207" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A207" s="16" t="s">
         <v>4</v>
       </c>
@@ -6004,7 +5991,7 @@
       <c r="I209" s="40"/>
       <c r="K209" s="35"/>
     </row>
-    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="52" t="s">
         <v>4</v>
       </c>
@@ -6022,66 +6009,6 @@
       </c>
       <c r="F210" s="54" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A211" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B211" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C211" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D211" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F211" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A212" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B212" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C212" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D212" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F212" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A213" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B213" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C213" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D213" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E213" s="55" t="s">
-        <v>214</v>
-      </c>
-      <c r="F213" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -6089,11 +6016,6 @@
     <filterColumn colId="1">
       <filters>
         <filter val="Other Soil Properties"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Chemical Properties"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/data/normative-effects.xlsx
+++ b/data/normative-effects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephen.wood/Box Sync/Work/The Nature Conservancy/Global Soils/AgEvidence/code-and-data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB274283-C69A-1845-82B7-194D45917699}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44D25B1-C3B2-7843-8FCB-33A4DBF0B5E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2520" yWindow="460" windowWidth="19200" windowHeight="14560" xr2:uid="{E2614878-5E79-439B-BF47-44ECB7DBED54}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$210</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="215">
   <si>
     <t>Review</t>
   </si>
@@ -667,6 +667,12 @@
   </si>
   <si>
     <t>Methane oxidation</t>
+  </si>
+  <si>
+    <t>Labile Carbon</t>
+  </si>
+  <si>
+    <t>Natural Abundance of 13C</t>
   </si>
 </sst>
 </file>
@@ -1219,12 +1225,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5790928A-FDEF-4501-A63F-C28CBDB4D383}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K210"/>
+  <dimension ref="A1:K214"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F210" sqref="F210"/>
+      <selection pane="bottomLeft" activeCell="D214" sqref="D214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1278,7 +1284,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>190</v>
       </c>
@@ -1301,7 +1307,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>190</v>
       </c>
@@ -1322,7 +1328,7 @@
       </c>
       <c r="G3" s="36"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>190</v>
       </c>
@@ -1388,7 +1394,7 @@
       </c>
       <c r="G6" s="36"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>190</v>
       </c>
@@ -1430,7 +1436,7 @@
       </c>
       <c r="G8" s="36"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>190</v>
       </c>
@@ -1662,7 +1668,7 @@
       </c>
       <c r="G18" s="36"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>190</v>
       </c>
@@ -1683,7 +1689,7 @@
       </c>
       <c r="G19" s="36"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>190</v>
       </c>
@@ -1894,7 +1900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>190</v>
       </c>
@@ -2104,7 +2110,7 @@
       </c>
       <c r="G38" s="36"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>190</v>
       </c>
@@ -2146,7 +2152,7 @@
       </c>
       <c r="G40" s="36"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>190</v>
       </c>
@@ -2167,7 +2173,7 @@
       </c>
       <c r="G41" s="36"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
         <v>190</v>
       </c>
@@ -2191,7 +2197,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>190</v>
       </c>
@@ -2277,7 +2283,7 @@
       </c>
       <c r="K45" s="12"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
         <v>190</v>
       </c>
@@ -2426,7 +2432,7 @@
       </c>
       <c r="G52" s="36"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
         <v>190</v>
       </c>
@@ -2470,7 +2476,7 @@
       <c r="H54" s="40"/>
       <c r="I54" s="40"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
         <v>190</v>
       </c>
@@ -3150,7 +3156,7 @@
       </c>
       <c r="G83" s="36"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>211</v>
       </c>
@@ -3732,7 +3738,7 @@
       <c r="H110" s="40"/>
       <c r="I110" s="40"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="12" t="s">
         <v>4</v>
       </c>
@@ -3753,7 +3759,7 @@
       </c>
       <c r="G111" s="36"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="12" t="s">
         <v>4</v>
       </c>
@@ -3774,7 +3780,7 @@
       </c>
       <c r="G112" s="36"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="s">
         <v>4</v>
       </c>
@@ -3858,7 +3864,7 @@
       </c>
       <c r="G116" s="36"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="12" t="s">
         <v>4</v>
       </c>
@@ -3977,7 +3983,7 @@
       <c r="I121" s="36"/>
       <c r="J121" s="36"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
         <v>4</v>
       </c>
@@ -3998,7 +4004,7 @@
       </c>
       <c r="G122" s="36"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
         <v>4</v>
       </c>
@@ -4251,7 +4257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
         <v>4</v>
       </c>
@@ -4409,7 +4415,7 @@
       </c>
       <c r="G140" s="36"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="12" t="s">
         <v>4</v>
       </c>
@@ -4472,7 +4478,7 @@
       </c>
       <c r="G143" s="36"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="10" t="s">
         <v>4</v>
       </c>
@@ -4493,7 +4499,7 @@
       </c>
       <c r="G144" s="36"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="10" t="s">
         <v>4</v>
       </c>
@@ -4535,7 +4541,7 @@
       </c>
       <c r="G146" s="36"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="12" t="s">
         <v>4</v>
       </c>
@@ -4793,7 +4799,7 @@
       </c>
       <c r="G157" s="36"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="12" t="s">
         <v>4</v>
       </c>
@@ -4856,7 +4862,7 @@
       </c>
       <c r="G160" s="36"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="10" t="s">
         <v>4</v>
       </c>
@@ -5172,7 +5178,7 @@
       </c>
       <c r="G174" s="36"/>
     </row>
-    <row r="175" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="15" t="s">
         <v>4</v>
       </c>
@@ -5225,7 +5231,7 @@
       </c>
       <c r="G176" s="36"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="10" t="s">
         <v>4</v>
       </c>
@@ -5288,7 +5294,7 @@
       </c>
       <c r="G179" s="36"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="10" t="s">
         <v>4</v>
       </c>
@@ -5617,7 +5623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="10" t="s">
         <v>4</v>
       </c>
@@ -5638,7 +5644,7 @@
       </c>
       <c r="G193" s="36"/>
     </row>
-    <row r="194" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="10" t="s">
         <v>4</v>
       </c>
@@ -5659,7 +5665,7 @@
       </c>
       <c r="G194" s="36"/>
     </row>
-    <row r="195" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="10" t="s">
         <v>4</v>
       </c>
@@ -5680,7 +5686,7 @@
       </c>
       <c r="G195" s="36"/>
     </row>
-    <row r="196" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="10" t="s">
         <v>4</v>
       </c>
@@ -5723,7 +5729,7 @@
       <c r="G197" s="36"/>
       <c r="K197" s="51"/>
     </row>
-    <row r="198" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A198" s="18" t="s">
         <v>4</v>
       </c>
@@ -5744,7 +5750,7 @@
       </c>
       <c r="G198" s="36"/>
     </row>
-    <row r="199" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A199" s="18" t="s">
         <v>4</v>
       </c>
@@ -5828,7 +5834,7 @@
       </c>
       <c r="G202" s="36"/>
     </row>
-    <row r="203" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A203" s="16" t="s">
         <v>4</v>
       </c>
@@ -5897,7 +5903,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" s="18" t="s">
         <v>4</v>
       </c>
@@ -5921,7 +5927,7 @@
       <c r="I206" s="40"/>
       <c r="K206" s="51"/>
     </row>
-    <row r="207" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A207" s="16" t="s">
         <v>4</v>
       </c>
@@ -5991,7 +5997,7 @@
       <c r="I209" s="40"/>
       <c r="K209" s="35"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="52" t="s">
         <v>4</v>
       </c>
@@ -6009,6 +6015,86 @@
       </c>
       <c r="F210" s="54" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A211" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F211" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A212" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D212" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F212" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A213" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D213" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A214" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D214" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -6016,6 +6102,11 @@
     <filterColumn colId="1">
       <filters>
         <filter val="Other Soil Properties"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Chemical Properties"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/data/normative-effects.xlsx
+++ b/data/normative-effects.xlsx
@@ -1,34 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephen.wood/Box Sync/Work/The Nature Conservancy/Global Soils/AgEvidence/code-and-data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44D25B1-C3B2-7843-8FCB-33A4DBF0B5E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F7B421-A349-9140-A9E5-0424227B589A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="460" windowWidth="19200" windowHeight="14560" xr2:uid="{E2614878-5E79-439B-BF47-44ECB7DBED54}"/>
+    <workbookView xWindow="960" yWindow="500" windowWidth="26280" windowHeight="16620" xr2:uid="{E2614878-5E79-439B-BF47-44ECB7DBED54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$210</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$282</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="248">
   <si>
     <t>Review</t>
   </si>
@@ -63,15 +72,9 @@
     <t>assumed societal harm</t>
   </si>
   <si>
-    <t>Methane (CH4)</t>
-  </si>
-  <si>
     <t>Carbon dioxide (CO2)</t>
   </si>
   <si>
-    <t>Methane and carbon dioxide (CH4 + CO2)</t>
-  </si>
-  <si>
     <t>Crop Yields</t>
   </si>
   <si>
@@ -673,6 +676,111 @@
   </si>
   <si>
     <t>Natural Abundance of 13C</t>
+  </si>
+  <si>
+    <t>Corn Sap Flow</t>
+  </si>
+  <si>
+    <t>Soybean Tissue (Biomass)</t>
+  </si>
+  <si>
+    <t>Soybean Nitrogen Content</t>
+  </si>
+  <si>
+    <t>Evapotranspiration</t>
+  </si>
+  <si>
+    <t>Decomposition rate of buried residue</t>
+  </si>
+  <si>
+    <t>Methane</t>
+  </si>
+  <si>
+    <t>Non-Growing Season Nitrogen Emissions</t>
+  </si>
+  <si>
+    <t>Earthworms</t>
+  </si>
+  <si>
+    <t>Soybean Infections</t>
+  </si>
+  <si>
+    <t>Waterhemp Control</t>
+  </si>
+  <si>
+    <t>Weed Community Control</t>
+  </si>
+  <si>
+    <t>Dissolved organic carbon</t>
+  </si>
+  <si>
+    <t>Soybean Tissue Nitrogen Content</t>
+  </si>
+  <si>
+    <t>Crop Phosphorus Use Efficiency</t>
+  </si>
+  <si>
+    <t>Soybean Tissue Phosphorus Content</t>
+  </si>
+  <si>
+    <t>Soybean root biomass</t>
+  </si>
+  <si>
+    <t>Pesticide Uptake</t>
+  </si>
+  <si>
+    <t>Soybean aphid</t>
+  </si>
+  <si>
+    <t>Soybean Tissue Biomass</t>
+  </si>
+  <si>
+    <t>Crop Nitrogen Use Efficiency</t>
+  </si>
+  <si>
+    <t>Cover Crop</t>
+  </si>
+  <si>
+    <t>Aboveground Biomass</t>
+  </si>
+  <si>
+    <t>Carbon Content</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Nitrogen Content</t>
+  </si>
+  <si>
+    <t>Corn phosphorus content</t>
+  </si>
+  <si>
+    <t>Corn potassium content</t>
+  </si>
+  <si>
+    <t>Soybean Phosphorus Content</t>
+  </si>
+  <si>
+    <t>Soybean Potassium Content</t>
+  </si>
+  <si>
+    <t>Soil Temperature</t>
+  </si>
+  <si>
+    <t>Decomposition rate of residues</t>
+  </si>
+  <si>
+    <t>Microbial diversity</t>
+  </si>
+  <si>
+    <t>Pesticide Retention</t>
+  </si>
+  <si>
+    <t>Plant-Parasitic</t>
+  </si>
+  <si>
+    <t>Methane and carbon dioxide</t>
   </si>
 </sst>
 </file>
@@ -824,7 +932,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -908,6 +1016,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1225,12 +1337,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5790928A-FDEF-4501-A63F-C28CBDB4D383}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K214"/>
+  <dimension ref="A1:K282"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D214" sqref="D214"/>
+      <selection pane="bottomLeft" activeCell="E282" sqref="E282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1260,45 +1372,45 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="J1" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="G1" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="H1" s="36" t="s">
+      <c r="K1" s="42" t="s">
         <v>200</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="K1" s="42" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>8</v>
@@ -1309,19 +1421,19 @@
     </row>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>8</v>
@@ -1330,64 +1442,64 @@
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="36"/>
       <c r="K4" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G5" s="36"/>
     </row>
     <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
@@ -1396,40 +1508,40 @@
     </row>
     <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G7" s="36"/>
     </row>
     <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F8" s="30" t="s">
         <v>10</v>
@@ -1438,31 +1550,31 @@
     </row>
     <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J9" s="36" t="s">
         <v>10</v>
@@ -1470,19 +1582,19 @@
     </row>
     <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>8</v>
@@ -1491,19 +1603,19 @@
     </row>
     <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -1512,19 +1624,19 @@
     </row>
     <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>8</v>
@@ -1533,19 +1645,19 @@
     </row>
     <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>10</v>
@@ -1554,19 +1666,19 @@
     </row>
     <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>8</v>
@@ -1575,19 +1687,19 @@
     </row>
     <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>8</v>
@@ -1596,31 +1708,31 @@
     </row>
     <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J16" s="36" t="s">
         <v>10</v>
@@ -1628,19 +1740,19 @@
     </row>
     <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F17" s="30" t="s">
         <v>10</v>
@@ -1649,19 +1761,19 @@
     </row>
     <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>8</v>
@@ -1670,19 +1782,19 @@
     </row>
     <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>8</v>
@@ -1691,19 +1803,19 @@
     </row>
     <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>10</v>
@@ -1712,19 +1824,19 @@
     </row>
     <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>10</v>
@@ -1733,19 +1845,19 @@
     </row>
     <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>8</v>
@@ -1754,19 +1866,19 @@
     </row>
     <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>8</v>
@@ -1775,19 +1887,19 @@
     </row>
     <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>8</v>
@@ -1796,19 +1908,19 @@
     </row>
     <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>8</v>
@@ -1817,19 +1929,19 @@
     </row>
     <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>8</v>
@@ -1838,31 +1950,31 @@
     </row>
     <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I27" s="36" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J27" s="36" t="s">
         <v>8</v>
@@ -1870,31 +1982,31 @@
     </row>
     <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J28" s="36" t="s">
         <v>8</v>
@@ -1902,19 +2014,19 @@
     </row>
     <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>8</v>
@@ -1923,19 +2035,19 @@
     </row>
     <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>10</v>
@@ -1944,37 +2056,37 @@
     </row>
     <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G31" s="36"/>
     </row>
     <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>9</v>
@@ -1986,61 +2098,61 @@
     </row>
     <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="36"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G34" s="36"/>
     </row>
     <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>10</v>
@@ -2049,40 +2161,40 @@
     </row>
     <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G36" s="36"/>
     </row>
     <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F37" s="30" t="s">
         <v>10</v>
@@ -2091,19 +2203,19 @@
     </row>
     <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>8</v>
@@ -2112,40 +2224,40 @@
     </row>
     <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G39" s="36"/>
     </row>
     <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>10</v>
@@ -2154,82 +2266,82 @@
     </row>
     <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G41" s="36"/>
     </row>
     <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="36"/>
       <c r="K42" s="43" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G43" s="36"/>
     </row>
     <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>6</v>
@@ -2238,33 +2350,33 @@
         <v>8</v>
       </c>
       <c r="G44" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H44" s="36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I44" s="36" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J44" s="36" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>8</v>
@@ -2273,10 +2385,10 @@
         <v>5</v>
       </c>
       <c r="H45" s="37" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I45" s="37" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J45" s="37" t="s">
         <v>8</v>
@@ -2285,41 +2397,41 @@
     </row>
     <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G46" s="36"/>
       <c r="K46" s="12"/>
     </row>
     <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>8</v>
@@ -2329,19 +2441,19 @@
     </row>
     <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>8</v>
@@ -2350,19 +2462,19 @@
     </row>
     <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>10</v>
@@ -2371,19 +2483,19 @@
     </row>
     <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>10</v>
@@ -2392,19 +2504,19 @@
     </row>
     <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>8</v>
@@ -2413,40 +2525,40 @@
     </row>
     <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G52" s="36"/>
     </row>
     <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>8</v>
@@ -2455,19 +2567,19 @@
     </row>
     <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C54" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="E54" s="28" t="s">
         <v>157</v>
-      </c>
-      <c r="D54" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="E54" s="28" t="s">
-        <v>159</v>
       </c>
       <c r="F54" s="30" t="s">
         <v>10</v>
@@ -2478,22 +2590,22 @@
     </row>
     <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B55" s="44" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C55" s="46" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D55" s="48" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E55" s="49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F55" s="49" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G55" s="36"/>
       <c r="H55" s="40"/>
@@ -2501,19 +2613,19 @@
     </row>
     <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D56" s="29" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F56" s="30" t="s">
         <v>10</v>
@@ -2524,19 +2636,19 @@
     </row>
     <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C57" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="E57" s="28" t="s">
         <v>65</v>
-      </c>
-      <c r="D57" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="E57" s="28" t="s">
-        <v>67</v>
       </c>
       <c r="F57" s="30" t="s">
         <v>10</v>
@@ -2544,24 +2656,24 @@
       <c r="G57" s="36"/>
       <c r="I57" s="38"/>
       <c r="K57" s="50" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F58" s="30" t="s">
         <v>10</v>
@@ -2572,19 +2684,19 @@
     </row>
     <row r="59" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F59" s="26" t="s">
         <v>8</v>
@@ -2593,31 +2705,31 @@
     </row>
     <row r="60" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G60" s="36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H60" s="39" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I60" s="36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J60" s="36" t="s">
         <v>10</v>
@@ -2625,19 +2737,19 @@
     </row>
     <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>10</v>
@@ -2646,19 +2758,19 @@
     </row>
     <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>10</v>
@@ -2667,19 +2779,19 @@
     </row>
     <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>8</v>
@@ -2688,19 +2800,19 @@
     </row>
     <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>8</v>
@@ -2709,19 +2821,19 @@
     </row>
     <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>10</v>
@@ -2730,19 +2842,19 @@
     </row>
     <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C66" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E66" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>8</v>
@@ -2751,31 +2863,31 @@
     </row>
     <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H67" s="39" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I67" s="36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J67" s="36" t="s">
         <v>10</v>
@@ -2783,31 +2895,31 @@
     </row>
     <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H68" s="39" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I68" s="36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J68" s="36" t="s">
         <v>10</v>
@@ -2815,19 +2927,19 @@
     </row>
     <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>10</v>
@@ -2838,31 +2950,31 @@
     </row>
     <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H70" s="36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I70" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J70" s="36" t="s">
         <v>10</v>
@@ -2870,19 +2982,19 @@
     </row>
     <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>8</v>
@@ -2891,19 +3003,19 @@
     </row>
     <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>10</v>
@@ -2912,19 +3024,19 @@
     </row>
     <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>10</v>
@@ -2933,19 +3045,19 @@
     </row>
     <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>8</v>
@@ -2954,19 +3066,19 @@
     </row>
     <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>8</v>
@@ -2975,19 +3087,19 @@
     </row>
     <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>8</v>
@@ -2996,19 +3108,19 @@
     </row>
     <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>10</v>
@@ -3017,19 +3129,19 @@
     </row>
     <row r="78" spans="1:10" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F78" s="25" t="s">
         <v>8</v>
@@ -3038,19 +3150,19 @@
     </row>
     <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>8</v>
@@ -3059,19 +3171,19 @@
     </row>
     <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>8</v>
@@ -3080,31 +3192,31 @@
     </row>
     <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H81" s="39" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I81" s="36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J81" s="36" t="s">
         <v>10</v>
@@ -3112,19 +3224,19 @@
     </row>
     <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>8</v>
@@ -3132,24 +3244,24 @@
       <c r="G82" s="36"/>
       <c r="I82" s="36"/>
       <c r="K82" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>10</v>
@@ -3158,19 +3270,19 @@
     </row>
     <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>8</v>
@@ -3179,19 +3291,19 @@
     </row>
     <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>10</v>
@@ -3200,22 +3312,22 @@
     </row>
     <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B86" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C86" s="28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E86" s="28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F86" s="30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G86" s="36"/>
       <c r="I86" s="40"/>
@@ -3223,19 +3335,19 @@
     </row>
     <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B87" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C87" s="28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E87" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F87" s="30" t="s">
         <v>10</v>
@@ -3243,24 +3355,24 @@
       <c r="G87" s="36"/>
       <c r="I87" s="38"/>
       <c r="K87" s="50" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>8</v>
@@ -3269,19 +3381,19 @@
     </row>
     <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>8</v>
@@ -3290,19 +3402,19 @@
     </row>
     <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>8</v>
@@ -3311,19 +3423,19 @@
     </row>
     <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>8</v>
@@ -3332,19 +3444,19 @@
     </row>
     <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>8</v>
@@ -3353,19 +3465,19 @@
     </row>
     <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>10</v>
@@ -3374,19 +3486,19 @@
     </row>
     <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>8</v>
@@ -3395,145 +3507,145 @@
     </row>
     <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C95" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D95" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="F95" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G95" s="36"/>
     </row>
     <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G96" s="36"/>
     </row>
     <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G97" s="36"/>
     </row>
     <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G98" s="36"/>
     </row>
     <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G99" s="36"/>
     </row>
     <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G100" s="36"/>
     </row>
     <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>10</v>
@@ -3542,19 +3654,19 @@
     </row>
     <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C102" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>10</v>
@@ -3563,43 +3675,43 @@
     </row>
     <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="36"/>
       <c r="K103" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C104" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>8</v>
@@ -3608,19 +3720,19 @@
     </row>
     <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>8</v>
@@ -3628,24 +3740,24 @@
       <c r="G105" s="36"/>
       <c r="I105" s="36"/>
       <c r="K105" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>8</v>
@@ -3654,19 +3766,19 @@
     </row>
     <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>8</v>
@@ -3675,19 +3787,19 @@
     </row>
     <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>8</v>
@@ -3696,40 +3808,40 @@
     </row>
     <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G109" s="36"/>
     </row>
     <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B110" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C110" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="D110" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="E110" s="28" t="s">
         <v>157</v>
-      </c>
-      <c r="D110" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="E110" s="28" t="s">
-        <v>159</v>
       </c>
       <c r="F110" s="30" t="s">
         <v>10</v>
@@ -3743,16 +3855,16 @@
         <v>4</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>8</v>
@@ -3764,16 +3876,16 @@
         <v>4</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>8</v>
@@ -3785,16 +3897,16 @@
         <v>4</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>8</v>
@@ -3806,40 +3918,40 @@
         <v>4</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="36"/>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G115" s="36"/>
     </row>
@@ -3848,16 +3960,16 @@
         <v>4</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>10</v>
@@ -3869,28 +3981,28 @@
         <v>4</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F117" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H117" s="36" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I117" s="36" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J117" s="36" t="s">
         <v>10</v>
@@ -3901,16 +4013,16 @@
         <v>4</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F118" s="8" t="s">
         <v>10</v>
@@ -3922,16 +4034,16 @@
         <v>4</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C119" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E119" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>8</v>
@@ -3946,34 +4058,34 @@
         <v>5</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="36"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>8</v>
@@ -3988,19 +4100,19 @@
         <v>4</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G122" s="36"/>
     </row>
@@ -4009,28 +4121,28 @@
         <v>4</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H123" s="36" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I123" s="36" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J123" s="36" t="s">
         <v>10</v>
@@ -4041,16 +4153,16 @@
         <v>4</v>
       </c>
       <c r="B124" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D124" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E124" s="15" t="s">
         <v>14</v>
-      </c>
-      <c r="C124" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="D124" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="E124" s="15" t="s">
-        <v>16</v>
       </c>
       <c r="F124" s="25" t="s">
         <v>8</v>
@@ -4062,16 +4174,16 @@
         <v>4</v>
       </c>
       <c r="B125" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E125" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>8</v>
@@ -4083,16 +4195,16 @@
         <v>4</v>
       </c>
       <c r="B126" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D126" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E126" s="15" t="s">
         <v>14</v>
-      </c>
-      <c r="C126" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D126" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="E126" s="15" t="s">
-        <v>16</v>
       </c>
       <c r="F126" s="25" t="s">
         <v>8</v>
@@ -4104,16 +4216,16 @@
         <v>4</v>
       </c>
       <c r="B127" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="D127" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="E127" s="15" t="s">
         <v>14</v>
-      </c>
-      <c r="C127" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="D127" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="E127" s="15" t="s">
-        <v>16</v>
       </c>
       <c r="F127" s="25" t="s">
         <v>10</v>
@@ -4125,16 +4237,16 @@
         <v>4</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C128" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E128" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>8</v>
@@ -4146,16 +4258,16 @@
         <v>4</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>8</v>
@@ -4167,16 +4279,16 @@
         <v>4</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E130" s="24" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F130" s="15" t="s">
         <v>8</v>
@@ -4188,16 +4300,16 @@
         <v>4</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>8</v>
@@ -4209,16 +4321,16 @@
         <v>4</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>10</v>
@@ -4230,28 +4342,28 @@
         <v>4</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H133" s="39" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I133" s="36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J133" s="36" t="s">
         <v>10</v>
@@ -4262,16 +4374,16 @@
         <v>4</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>8</v>
@@ -4283,16 +4395,16 @@
         <v>4</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>8</v>
@@ -4304,16 +4416,16 @@
         <v>4</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>10</v>
@@ -4325,16 +4437,16 @@
         <v>4</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>10</v>
@@ -4346,16 +4458,16 @@
         <v>4</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>8</v>
@@ -4367,28 +4479,28 @@
         <v>4</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H139" s="36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I139" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J139" s="36" t="s">
         <v>10</v>
@@ -4399,16 +4511,16 @@
         <v>4</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F140" s="8" t="s">
         <v>8</v>
@@ -4420,19 +4532,19 @@
         <v>4</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G141" s="36"/>
     </row>
@@ -4441,16 +4553,16 @@
         <v>4</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>10</v>
@@ -4462,19 +4574,19 @@
         <v>4</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G143" s="36"/>
     </row>
@@ -4483,16 +4595,16 @@
         <v>4</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>8</v>
@@ -4504,16 +4616,16 @@
         <v>4</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C145" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E145" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="D145" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>10</v>
@@ -4525,16 +4637,16 @@
         <v>4</v>
       </c>
       <c r="B146" s="29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C146" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D146" s="29" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E146" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F146" s="30" t="s">
         <v>10</v>
@@ -4546,16 +4658,16 @@
         <v>4</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F147" s="8" t="s">
         <v>8</v>
@@ -4567,16 +4679,16 @@
         <v>4</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>10</v>
@@ -4592,16 +4704,16 @@
         <v>4</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>8</v>
@@ -4617,16 +4729,16 @@
         <v>4</v>
       </c>
       <c r="B150" s="29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C150" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D150" s="29" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E150" s="29" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F150" s="30" t="s">
         <v>10</v>
@@ -4642,16 +4754,16 @@
         <v>4</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>10</v>
@@ -4667,28 +4779,28 @@
         <v>4</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G152" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H152" s="36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I152" s="36" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J152" s="36" t="s">
         <v>8</v>
@@ -4699,16 +4811,16 @@
         <v>4</v>
       </c>
       <c r="B153" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C153" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D153" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="E153" s="29" t="s">
         <v>64</v>
-      </c>
-      <c r="C153" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D153" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="E153" s="29" t="s">
-        <v>66</v>
       </c>
       <c r="F153" s="30" t="s">
         <v>10</v>
@@ -4720,16 +4832,16 @@
         <v>4</v>
       </c>
       <c r="B154" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E154" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>8</v>
@@ -4741,16 +4853,16 @@
         <v>4</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C155" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E155" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>10</v>
@@ -4765,13 +4877,13 @@
         <v>5</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>11</v>
+        <v>184</v>
+      </c>
+      <c r="E156" s="6" t="s">
+        <v>247</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>10</v>
@@ -4779,44 +4891,44 @@
       <c r="G156" s="36"/>
     </row>
     <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E157" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>10</v>
+      <c r="A157" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F157" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="G157" s="36"/>
     </row>
     <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D158" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E158" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F158" s="8" t="s">
-        <v>8</v>
+      <c r="A158" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G158" s="36"/>
     </row>
@@ -4825,19 +4937,19 @@
         <v>4</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G159" s="36"/>
     </row>
@@ -4846,19 +4958,19 @@
         <v>4</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D160" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="G160" s="36"/>
     </row>
@@ -4867,19 +4979,19 @@
         <v>4</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>38</v>
+        <v>88</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="G161" s="36"/>
     </row>
@@ -4888,16 +5000,16 @@
         <v>4</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>155</v>
+        <v>62</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>8</v>
@@ -4909,16 +5021,16 @@
         <v>4</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>8</v>
@@ -4930,49 +5042,60 @@
         <v>4</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>185</v>
+        <v>62</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G164" s="36"/>
+        <v>61</v>
+      </c>
+      <c r="G164" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="H164" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="I164" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="J164" s="36" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>109</v>
+        <v>185</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G165" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H165" s="36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I165" s="36" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J165" s="36" t="s">
         <v>8</v>
@@ -4983,51 +5106,40 @@
         <v>4</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>81</v>
+        <v>100</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>88</v>
+        <v>184</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G166" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="H166" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="I166" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="J166" s="36" t="s">
-        <v>8</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G166" s="36"/>
     </row>
     <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>186</v>
+        <v>88</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="G167" s="36"/>
     </row>
@@ -5036,19 +5148,19 @@
         <v>4</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>187</v>
+        <v>5</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="G168" s="36"/>
     </row>
@@ -5057,16 +5169,16 @@
         <v>4</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>161</v>
+        <v>101</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>10</v>
@@ -5078,40 +5190,40 @@
         <v>4</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="C170" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G170" s="36"/>
+    </row>
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C171" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D170" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G170" s="36"/>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A171" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>187</v>
+      <c r="D171" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="G171" s="36"/>
     </row>
@@ -5120,114 +5232,114 @@
         <v>4</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>105</v>
+        <v>181</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="G172" s="36"/>
     </row>
     <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E173" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>63</v>
+      <c r="A173" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F173" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="G173" s="36"/>
     </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B174" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D174" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="E174" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F174" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G174" s="36"/>
-    </row>
-    <row r="175" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B175" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C175" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D175" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="E175" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="F175" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="G175" s="38" t="s">
+    <row r="174" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C174" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E174" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F174" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G174" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="H175" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="I175" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="J175" s="38" t="s">
-        <v>63</v>
-      </c>
+      <c r="H174" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="I174" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="J174" s="38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G175" s="36"/>
     </row>
     <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D176" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D176" s="6" t="s">
         <v>185</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="G176" s="36"/>
     </row>
@@ -5236,19 +5348,19 @@
         <v>4</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D177" s="6" t="s">
-        <v>187</v>
+        <v>106</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="G177" s="36"/>
     </row>
@@ -5257,16 +5369,16 @@
         <v>4</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>186</v>
+        <v>67</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>10</v>
@@ -5278,19 +5390,19 @@
         <v>4</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>186</v>
+        <v>33</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>185</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="G179" s="36"/>
     </row>
@@ -5299,21 +5411,32 @@
         <v>4</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D180" s="6" t="s">
-        <v>187</v>
+        <v>175</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G180" s="36"/>
+        <v>8</v>
+      </c>
+      <c r="G180" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="H180" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I180" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="J180" s="36" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="10" t="s">
@@ -5323,197 +5446,186 @@
         <v>5</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D181" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G181" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="H181" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I181" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="E181" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G181" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="H181" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="I181" s="36" t="s">
-        <v>187</v>
-      </c>
       <c r="J181" s="36" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B182" s="3" t="s">
+      <c r="A182" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D182" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G182" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C182" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E182" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G182" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="H182" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="I182" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="J182" s="36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A183" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C183" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D183" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E183" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F183" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G183" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H183" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="I183" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="J183" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="K183" s="12"/>
-    </row>
-    <row r="184" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B184" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C184" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="D184" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="E184" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F184" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G184" s="38"/>
-    </row>
-    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C185" s="3" t="s">
+      <c r="H182" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="I182" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="J182" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="K182" s="12"/>
+    </row>
+    <row r="183" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B183" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C183" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D183" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E183" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D185" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E185" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G185" s="36"/>
+      <c r="F183" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G183" s="38"/>
+    </row>
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G184" s="36"/>
+    </row>
+    <row r="185" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B185" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C185" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D185" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E185" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F185" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G185" s="38"/>
     </row>
     <row r="186" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C186" s="15" t="s">
-        <v>117</v>
+        <v>190</v>
       </c>
       <c r="D186" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E186" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F186" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="38"/>
+    </row>
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E187" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F186" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G186" s="38"/>
-    </row>
-    <row r="187" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B187" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C187" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="D187" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="E187" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F187" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G187" s="38"/>
+      <c r="F187" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G187" s="36"/>
     </row>
     <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>185</v>
+        <v>67</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G188" s="36"/>
     </row>
@@ -5522,16 +5634,16 @@
         <v>4</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>186</v>
+        <v>83</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>10</v>
@@ -5543,49 +5655,60 @@
         <v>4</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G190" s="36"/>
+      <c r="G190" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H190" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I190" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="J190" s="36" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H191" s="39" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I191" s="36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J191" s="36" t="s">
         <v>10</v>
@@ -5596,48 +5719,37 @@
         <v>4</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G192" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="H192" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="I192" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="J192" s="36" t="s">
-        <v>10</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G192" s="36"/>
     </row>
     <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E193" s="3" t="s">
-        <v>60</v>
+        <v>183</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>8</v>
@@ -5649,16 +5761,16 @@
         <v>4</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>29</v>
+        <v>183</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>8</v>
@@ -5670,83 +5782,83 @@
         <v>4</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G195" s="36"/>
     </row>
-    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E196" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F196" s="1" t="s">
+    <row r="196" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B196" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C196" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D196" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="E196" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F196" s="32" t="s">
         <v>8</v>
       </c>
       <c r="G196" s="36"/>
+      <c r="K196" s="51"/>
     </row>
     <row r="197" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A197" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B197" s="20" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C197" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D197" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D197" s="47" t="s">
         <v>185</v>
       </c>
       <c r="E197" s="20" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F197" s="32" t="s">
         <v>8</v>
       </c>
       <c r="G197" s="36"/>
-      <c r="K197" s="51"/>
     </row>
     <row r="198" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A198" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B198" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D198" s="47" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E198" s="20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F198" s="32" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="G198" s="36"/>
     </row>
@@ -5755,19 +5867,19 @@
         <v>4</v>
       </c>
       <c r="B199" s="20" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C199" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D199" s="47" t="s">
-        <v>187</v>
+        <v>21</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="E199" s="20" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F199" s="32" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="G199" s="36"/>
     </row>
@@ -5776,16 +5888,16 @@
         <v>4</v>
       </c>
       <c r="B200" s="20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C200" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>185</v>
+        <v>21</v>
+      </c>
+      <c r="D200" s="20" t="s">
+        <v>183</v>
       </c>
       <c r="E200" s="20" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F200" s="32" t="s">
         <v>8</v>
@@ -5797,130 +5909,133 @@
         <v>4</v>
       </c>
       <c r="B201" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C201" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D201" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C201" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D201" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="E201" s="20" t="s">
+      <c r="E201" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F201" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="G201" s="36"/>
+    </row>
+    <row r="202" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B202" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F201" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="G201" s="36"/>
-    </row>
-    <row r="202" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B202" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C202" s="17" t="s">
+      <c r="C202" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="D202" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="E202" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F202" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G202" s="36"/>
+    </row>
+    <row r="203" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B203" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C203" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D203" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="E203" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F203" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="36"/>
+      <c r="K203" s="51"/>
+    </row>
+    <row r="204" spans="1:11" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B204" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C204" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="D202" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="E202" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="F202" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="G202" s="36"/>
-    </row>
-    <row r="203" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B203" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C203" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="D203" s="22" t="s">
+      <c r="D204" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E204" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F204" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="40"/>
+      <c r="H204" s="40"/>
+      <c r="I204" s="40"/>
+      <c r="K204" s="34" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B205" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C205" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D205" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="E203" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F203" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G203" s="36"/>
-    </row>
-    <row r="204" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B204" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C204" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D204" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="E204" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F204" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G204" s="36"/>
-      <c r="K204" s="51"/>
-    </row>
-    <row r="205" spans="1:11" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B205" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C205" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D205" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="E205" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="F205" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="G205" s="40"/>
+      <c r="E205" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F205" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G205" s="36"/>
       <c r="H205" s="40"/>
       <c r="I205" s="40"/>
-      <c r="K205" s="34" t="s">
-        <v>196</v>
-      </c>
+      <c r="K205" s="51"/>
     </row>
     <row r="206" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B206" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C206" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D206" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="E206" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F206" s="32" t="s">
-        <v>8</v>
+      <c r="A206" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B206" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C206" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="D206" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="E206" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F206" s="33" t="s">
+        <v>61</v>
       </c>
       <c r="G206" s="36"/>
       <c r="H206" s="40"/>
@@ -5928,190 +6043,1530 @@
       <c r="K206" s="51"/>
     </row>
     <row r="207" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B207" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C207" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="D207" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="E207" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F207" s="33" t="s">
+      <c r="A207" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B207" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C207" s="20" t="s">
         <v>63</v>
       </c>
+      <c r="D207" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="E207" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F207" s="32" t="s">
+        <v>10</v>
+      </c>
       <c r="G207" s="36"/>
-      <c r="H207" s="40"/>
       <c r="I207" s="40"/>
-      <c r="K207" s="51"/>
+      <c r="K207" s="35"/>
     </row>
     <row r="208" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A208" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B208" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C208" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D208" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E208" s="20" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F208" s="32" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="G208" s="36"/>
       <c r="I208" s="40"/>
       <c r="K208" s="35"/>
     </row>
-    <row r="209" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B209" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C209" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D209" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="E209" s="20" t="s">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B209" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C209" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="D209" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="E209" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="F209" s="54" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F210" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D211" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F211" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D212" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D213" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="B214" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C214" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D214" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="E214" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F214" s="30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E219" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E220" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="B223" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C223" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D223" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="E223" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="F223" s="30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B224" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C224" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D224" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E224" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="F224" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D225" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F225" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C226" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D226" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="E226" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F226" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="B227" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C227" s="55"/>
+    </row>
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="B228" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C228" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D228" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="E228" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="F228" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A231" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E231" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E232" s="58" t="s">
+        <v>219</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E234" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F209" s="32" t="s">
+      <c r="F234" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C236" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G209" s="36"/>
-      <c r="I209" s="40"/>
-      <c r="K209" s="35"/>
-    </row>
-    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="B210" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="C210" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="D210" s="54" t="s">
-        <v>187</v>
-      </c>
-      <c r="E210" s="53" t="s">
-        <v>212</v>
-      </c>
-      <c r="F210" s="54" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A211" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F211" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A212" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B212" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C212" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D212" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F212" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A213" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B213" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C213" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D213" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F213" s="1" t="s">
+      <c r="D236" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="E236" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="F236" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="B237" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C237" s="30" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A214" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B214" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C214" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D214" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F214" s="1" t="s">
-        <v>63</v>
+      <c r="D237" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="E237" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="F237" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D241" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="E241" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="F241" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="B242" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C242" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="D242" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B243" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C243" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D243" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E243" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F243" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E244" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E245" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E246" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E247" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E248" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E249" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E250" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E251" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E252" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E253" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E254" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E255" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E256" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E257" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D258" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E260" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B261" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C261" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D261" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="E261" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="F261" s="30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A262" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E263" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B264" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C264" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="D264" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E264" s="56" t="s">
+        <v>234</v>
+      </c>
+      <c r="F264" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B265" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C265" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="D265" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E265" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="F265" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B266" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C266" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="D266" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E266" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="F266" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A267" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B267" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C267" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="D267" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E267" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="F267" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B268" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C268" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D268" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E268" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="F268" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B269" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C269" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D269" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E269" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="F269" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E270" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E271" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E272" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B273" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C273" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D273" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E273" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="F273" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E274" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E275" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C276" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E276" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C277" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D277" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E277" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="F277" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C278" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D278" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E278" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F278" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A279" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D279" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F279" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D280" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F280" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A282" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E282" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K210" xr:uid="{749F81FE-5A40-422C-A0CF-574E71A9CE1E}">
-    <filterColumn colId="1">
+  <autoFilter ref="A1:K282" xr:uid="{8B1360B6-23BC-4F49-9C86-2B3B194A8FE8}">
+    <filterColumn colId="4">
       <filters>
-        <filter val="Other Soil Properties"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Chemical Properties"/>
+        <filter val="Ammonium (NH4)"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K209">
-    <sortCondition ref="A2:A209"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K208">
+    <sortCondition ref="A2:A208"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/normative-effects.xlsx
+++ b/data/normative-effects.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephen.wood/Box Sync/Work/The Nature Conservancy/Global Soils/AgEvidence/code-and-data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F7B421-A349-9140-A9E5-0424227B589A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A14B583-65D8-F84A-8243-E2F80F58C72A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="500" windowWidth="26280" windowHeight="16620" xr2:uid="{E2614878-5E79-439B-BF47-44ECB7DBED54}"/>
+    <workbookView xWindow="560" yWindow="500" windowWidth="26280" windowHeight="16620" xr2:uid="{E2614878-5E79-439B-BF47-44ECB7DBED54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$282</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$281</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="242">
   <si>
     <t>Review</t>
   </si>
@@ -96,15 +96,9 @@
     <t>Corn (height)</t>
   </si>
   <si>
-    <t>Corn Nutrient Content</t>
-  </si>
-  <si>
     <t>Stover nitrogen</t>
   </si>
   <si>
-    <t>Soybean Nutrient Content</t>
-  </si>
-  <si>
     <t>Tissue nitrogen</t>
   </si>
   <si>
@@ -117,12 +111,6 @@
     <t>Root nitrogen</t>
   </si>
   <si>
-    <t xml:space="preserve">Corn and soybean tissue (biomass) </t>
-  </si>
-  <si>
-    <t>Soybean tissue (biomass)</t>
-  </si>
-  <si>
     <t>Corn and soybean</t>
   </si>
   <si>
@@ -219,9 +207,6 @@
     <t>Fungal abundance</t>
   </si>
   <si>
-    <t>Decomposition rate of surface residue</t>
-  </si>
-  <si>
     <t>dependent on other factors</t>
   </si>
   <si>
@@ -417,9 +402,6 @@
     <t>Corn (infection of roots)</t>
   </si>
   <si>
-    <t>Soybeans (pathogens in soil)</t>
-  </si>
-  <si>
     <t>Soybean (infection of leaf tissue)</t>
   </si>
   <si>
@@ -432,9 +414,6 @@
     <t>Corn root biomass</t>
   </si>
   <si>
-    <t>Crop Nitrogen Content</t>
-  </si>
-  <si>
     <t>Corn stalk nitrogen content</t>
   </si>
   <si>
@@ -495,9 +474,6 @@
     <t>Waterhemp (#)</t>
   </si>
   <si>
-    <t>Weeed community (biomass)</t>
-  </si>
-  <si>
     <t>Nitrogen</t>
   </si>
   <si>
@@ -537,9 +513,6 @@
     <t>Crop Nutrient Content</t>
   </si>
   <si>
-    <t>Crop nitrogen use efficiency</t>
-  </si>
-  <si>
     <t>Corn nitrogen uptake</t>
   </si>
   <si>
@@ -681,9 +654,6 @@
     <t>Corn Sap Flow</t>
   </si>
   <si>
-    <t>Soybean Tissue (Biomass)</t>
-  </si>
-  <si>
     <t>Soybean Nitrogen Content</t>
   </si>
   <si>
@@ -696,9 +666,6 @@
     <t>Methane</t>
   </si>
   <si>
-    <t>Non-Growing Season Nitrogen Emissions</t>
-  </si>
-  <si>
     <t>Earthworms</t>
   </si>
   <si>
@@ -732,9 +699,6 @@
     <t>Soybean aphid</t>
   </si>
   <si>
-    <t>Soybean Tissue Biomass</t>
-  </si>
-  <si>
     <t>Crop Nitrogen Use Efficiency</t>
   </si>
   <si>
@@ -768,9 +732,6 @@
     <t>Soil Temperature</t>
   </si>
   <si>
-    <t>Decomposition rate of residues</t>
-  </si>
-  <si>
     <t>Microbial diversity</t>
   </si>
   <si>
@@ -780,7 +741,28 @@
     <t>Plant-Parasitic</t>
   </si>
   <si>
-    <t>Methane and carbon dioxide</t>
+    <t>Annual Nitrous Oxide Emissions</t>
+  </si>
+  <si>
+    <t>Nitrous Oxide During Growing Seasons</t>
+  </si>
+  <si>
+    <t>Nitrous Oxide During Winter</t>
+  </si>
+  <si>
+    <t>Soybean (pathogens in soil)</t>
+  </si>
+  <si>
+    <t>Methane + Carbon Dioxide</t>
+  </si>
+  <si>
+    <t>Corn and soybean aboveground biomass</t>
+  </si>
+  <si>
+    <t>Decomposition rate of surface residues</t>
+  </si>
+  <si>
+    <t>Weed Community (Biomass)</t>
   </si>
 </sst>
 </file>
@@ -1337,12 +1319,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5790928A-FDEF-4501-A63F-C28CBDB4D383}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K282"/>
+  <dimension ref="A1:K281"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E282" sqref="E282"/>
+      <selection pane="bottomLeft" activeCell="E215" sqref="E215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1372,45 +1354,45 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G1" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="J1" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="H1" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>208</v>
-      </c>
       <c r="K1" s="42" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>8</v>
@@ -1421,19 +1403,19 @@
     </row>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>8</v>
@@ -1442,61 +1424,61 @@
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="36"/>
       <c r="K4" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G5" s="36"/>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
@@ -1508,40 +1490,40 @@
     </row>
     <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G7" s="36"/>
     </row>
     <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F8" s="30" t="s">
         <v>10</v>
@@ -1550,31 +1532,31 @@
     </row>
     <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="J9" s="36" t="s">
         <v>10</v>
@@ -1582,16 +1564,16 @@
     </row>
     <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>14</v>
@@ -1603,16 +1585,16 @@
     </row>
     <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>14</v>
@@ -1624,19 +1606,19 @@
     </row>
     <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>8</v>
@@ -1645,19 +1627,19 @@
     </row>
     <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>10</v>
@@ -1666,7 +1648,7 @@
     </row>
     <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>12</v>
@@ -1675,10 +1657,10 @@
         <v>16</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>8</v>
@@ -1687,19 +1669,19 @@
     </row>
     <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>8</v>
@@ -1708,19 +1690,19 @@
     </row>
     <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>10</v>
@@ -1729,10 +1711,10 @@
         <v>12</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="J16" s="36" t="s">
         <v>10</v>
@@ -1740,19 +1722,19 @@
     </row>
     <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F17" s="30" t="s">
         <v>10</v>
@@ -1761,19 +1743,19 @@
     </row>
     <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>8</v>
@@ -1782,19 +1764,19 @@
     </row>
     <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>8</v>
@@ -1803,19 +1785,19 @@
     </row>
     <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>10</v>
@@ -1824,19 +1806,19 @@
     </row>
     <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>10</v>
@@ -1845,19 +1827,19 @@
     </row>
     <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>8</v>
@@ -1866,19 +1848,19 @@
     </row>
     <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>8</v>
@@ -1887,19 +1869,19 @@
     </row>
     <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>8</v>
@@ -1908,19 +1890,19 @@
     </row>
     <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>8</v>
@@ -1929,19 +1911,19 @@
     </row>
     <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>8</v>
@@ -1950,31 +1932,31 @@
     </row>
     <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I27" s="36" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="J27" s="36" t="s">
         <v>8</v>
@@ -1982,31 +1964,31 @@
     </row>
     <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="J28" s="36" t="s">
         <v>8</v>
@@ -2014,19 +1996,19 @@
     </row>
     <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>8</v>
@@ -2035,19 +2017,19 @@
     </row>
     <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>10</v>
@@ -2056,40 +2038,40 @@
     </row>
     <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G31" s="36"/>
     </row>
     <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>9</v>
+        <v>234</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>10</v>
@@ -2098,19 +2080,19 @@
     </row>
     <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>10</v>
@@ -2119,40 +2101,40 @@
     </row>
     <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G34" s="36"/>
     </row>
     <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>10</v>
@@ -2161,40 +2143,40 @@
     </row>
     <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G36" s="36"/>
     </row>
     <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F37" s="30" t="s">
         <v>10</v>
@@ -2203,19 +2185,19 @@
     </row>
     <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>8</v>
@@ -2224,40 +2206,40 @@
     </row>
     <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G39" s="36"/>
     </row>
     <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="D40" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>10</v>
@@ -2266,82 +2248,82 @@
     </row>
     <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="G41" s="36"/>
     </row>
     <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="36"/>
       <c r="K42" s="43" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="D43" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G43" s="36"/>
     </row>
     <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>6</v>
@@ -2350,13 +2332,13 @@
         <v>8</v>
       </c>
       <c r="G44" s="36" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H44" s="36" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I44" s="36" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="J44" s="36" t="s">
         <v>8</v>
@@ -2364,19 +2346,19 @@
     </row>
     <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>8</v>
@@ -2385,10 +2367,10 @@
         <v>5</v>
       </c>
       <c r="H45" s="37" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="I45" s="37" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="J45" s="37" t="s">
         <v>8</v>
@@ -2397,38 +2379,38 @@
     </row>
     <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="D46" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G46" s="36"/>
       <c r="K46" s="12"/>
     </row>
     <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>15</v>
@@ -2441,16 +2423,16 @@
     </row>
     <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>15</v>
@@ -2462,19 +2444,19 @@
     </row>
     <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="D49" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>10</v>
@@ -2483,19 +2465,19 @@
     </row>
     <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>10</v>
@@ -2504,19 +2486,19 @@
     </row>
     <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>8</v>
@@ -2525,40 +2507,40 @@
     </row>
     <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G52" s="36"/>
     </row>
     <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>8</v>
@@ -2567,19 +2549,19 @@
     </row>
     <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F54" s="30" t="s">
         <v>10</v>
@@ -2590,22 +2572,22 @@
     </row>
     <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B55" s="44" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C55" s="46" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D55" s="48" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E55" s="49" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F55" s="49" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G55" s="36"/>
       <c r="H55" s="40"/>
@@ -2613,19 +2595,19 @@
     </row>
     <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D56" s="29" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F56" s="30" t="s">
         <v>10</v>
@@ -2636,19 +2618,19 @@
     </row>
     <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F57" s="30" t="s">
         <v>10</v>
@@ -2656,100 +2638,98 @@
       <c r="G57" s="36"/>
       <c r="I57" s="38"/>
       <c r="K57" s="50" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B58" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F58" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="41"/>
+    </row>
+    <row r="59" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="F59" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="G59" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="I59" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="J59" s="36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D58" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="E58" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="F58" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="36"/>
-      <c r="I58" s="40"/>
-      <c r="K58" s="15"/>
-    </row>
-    <row r="59" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="F59" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="G59" s="41"/>
-    </row>
-    <row r="60" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D60" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="F60" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="G60" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="I60" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="J60" s="36" t="s">
-        <v>10</v>
-      </c>
+      <c r="D60" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="36"/>
     </row>
     <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>184</v>
+      <c r="D61" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>10</v>
@@ -2758,37 +2738,37 @@
     </row>
     <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>184</v>
+        <v>108</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G62" s="36"/>
     </row>
     <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>14</v>
@@ -2800,82 +2780,93 @@
     </row>
     <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>183</v>
+        <v>21</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G64" s="36"/>
     </row>
     <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>108</v>
+        <v>174</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G65" s="36"/>
     </row>
     <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>18</v>
+        <v>175</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G66" s="36"/>
+        <v>10</v>
+      </c>
+      <c r="G66" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="I66" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="J66" s="36" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>10</v>
@@ -2884,10 +2875,10 @@
         <v>12</v>
       </c>
       <c r="H67" s="39" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I67" s="36" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="J67" s="36" t="s">
         <v>10</v>
@@ -2895,127 +2886,116 @@
     </row>
     <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>125</v>
+        <v>174</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G68" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H68" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="I68" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="J68" s="36" t="s">
-        <v>10</v>
-      </c>
+      <c r="G68" s="36"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="36"/>
     </row>
     <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>110</v>
+        <v>175</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G69" s="36"/>
-      <c r="H69" s="39"/>
-      <c r="I69" s="36"/>
+      <c r="G69" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="H69" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="I69" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="J69" s="36" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>176</v>
+        <v>117</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G70" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="H70" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="I70" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="J70" s="36" t="s">
-        <v>10</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G70" s="36"/>
     </row>
     <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="D71" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G71" s="36"/>
     </row>
     <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="D72" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>10</v>
@@ -3024,37 +3004,37 @@
     </row>
     <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G73" s="36"/>
     </row>
     <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>15</v>
@@ -3066,16 +3046,16 @@
     </row>
     <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>15</v>
@@ -3087,70 +3067,70 @@
     </row>
     <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>183</v>
+        <v>21</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G76" s="36"/>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D77" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E77" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G77" s="36"/>
-    </row>
-    <row r="78" spans="1:10" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F77" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G77" s="38"/>
+    </row>
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B78" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C78" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D78" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="E78" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="F78" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G78" s="38"/>
+      <c r="D78" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G78" s="36"/>
     </row>
     <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>12</v>
@@ -3159,10 +3139,10 @@
         <v>16</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>111</v>
+        <v>174</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>8</v>
@@ -3171,205 +3151,205 @@
     </row>
     <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>17</v>
+        <v>175</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G80" s="36"/>
+        <v>10</v>
+      </c>
+      <c r="G80" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="I80" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="J80" s="36" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H81" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="I81" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="J81" s="36" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="G81" s="36"/>
+      <c r="I81" s="36"/>
+      <c r="K81" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>183</v>
+        <v>62</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G82" s="36"/>
-      <c r="I82" s="36"/>
-      <c r="K82" s="1" t="s">
-        <v>187</v>
-      </c>
     </row>
     <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>119</v>
+        <v>40</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G83" s="36"/>
     </row>
     <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>58</v>
+        <v>175</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G84" s="36"/>
     </row>
     <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B85" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B85" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C85" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>10</v>
+      <c r="D85" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="E85" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F85" s="30" t="s">
+        <v>56</v>
       </c>
       <c r="G85" s="36"/>
+      <c r="I85" s="40"/>
+      <c r="K85" s="15"/>
     </row>
     <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B86" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C86" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="C86" s="28" t="s">
-        <v>67</v>
-      </c>
       <c r="D86" s="28" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E86" s="28" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F86" s="30" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="G86" s="36"/>
-      <c r="I86" s="40"/>
-      <c r="K86" s="15"/>
+      <c r="I86" s="38"/>
+      <c r="K86" s="50" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B87" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C87" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="D87" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="E87" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="F87" s="30" t="s">
-        <v>10</v>
+        <v>150</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G87" s="36"/>
-      <c r="I87" s="38"/>
-      <c r="K87" s="50" t="s">
-        <v>197</v>
-      </c>
     </row>
     <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>14</v>
@@ -3381,19 +3361,19 @@
     </row>
     <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>183</v>
+        <v>16</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>8</v>
@@ -3402,19 +3382,19 @@
     </row>
     <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>8</v>
@@ -3423,19 +3403,19 @@
     </row>
     <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>8</v>
@@ -3444,274 +3424,278 @@
     </row>
     <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>132</v>
+        <v>175</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G92" s="36"/>
     </row>
     <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>184</v>
+        <v>161</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G93" s="36"/>
     </row>
     <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>166</v>
+        <v>99</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="G94" s="36"/>
     </row>
     <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G95" s="36"/>
     </row>
     <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G96" s="36"/>
     </row>
     <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G97" s="36"/>
     </row>
     <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G98" s="36"/>
     </row>
     <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>185</v>
+        <v>98</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>173</v>
+        <v>99</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="G99" s="36"/>
     </row>
     <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>185</v>
+        <v>151</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="G100" s="36"/>
     </row>
     <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="36"/>
+      <c r="K101" s="1" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>184</v>
+        <v>13</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G102" s="36"/>
     </row>
     <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G103" s="36"/>
+      <c r="I103" s="36"/>
       <c r="K103" s="1" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
     </row>
     <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>8</v>
@@ -3720,44 +3704,40 @@
     </row>
     <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>183</v>
+        <v>109</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G105" s="36"/>
-      <c r="I105" s="36"/>
-      <c r="K105" s="1" t="s">
-        <v>187</v>
-      </c>
     </row>
     <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>169</v>
+        <v>157</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>8</v>
@@ -3766,105 +3746,105 @@
     </row>
     <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="G107" s="36"/>
     </row>
     <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>8</v>
+      <c r="A108" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="B108" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C108" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="D108" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="E108" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="F108" s="30" t="s">
+        <v>10</v>
       </c>
       <c r="G108" s="36"/>
+      <c r="H108" s="40"/>
+      <c r="I108" s="40"/>
     </row>
     <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>61</v>
+      <c r="A109" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="G109" s="36"/>
     </row>
     <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="B110" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="C110" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="D110" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="E110" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="F110" s="30" t="s">
-        <v>10</v>
+      <c r="A110" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="G110" s="36"/>
-      <c r="H110" s="40"/>
-      <c r="I110" s="40"/>
     </row>
     <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>8</v>
@@ -3872,44 +3852,44 @@
       <c r="G111" s="36"/>
     </row>
     <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>8</v>
+      <c r="A112" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G112" s="36"/>
     </row>
     <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>8</v>
+      <c r="A113" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="G113" s="36"/>
     </row>
@@ -3918,113 +3898,113 @@
         <v>4</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>66</v>
+        <v>169</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="36"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A115" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G115" s="36"/>
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H115" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="I115" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="J115" s="36" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F116" s="1" t="s">
+      <c r="A116" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F116" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="36"/>
     </row>
     <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F117" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="H117" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="I117" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="J117" s="36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C118" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D118" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F118" s="8" t="s">
+      <c r="A117" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G117" s="36"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="36"/>
@@ -4034,40 +4014,43 @@
         <v>4</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>183</v>
+        <v>34</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G119" s="36"/>
+      <c r="H119" s="36"/>
+      <c r="I119" s="36"/>
+      <c r="J119" s="36"/>
     </row>
     <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>184</v>
+        <v>29</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G120" s="36"/>
     </row>
@@ -4076,77 +4059,74 @@
         <v>4</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>185</v>
+        <v>29</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G121" s="36"/>
-      <c r="H121" s="36"/>
-      <c r="I121" s="36"/>
-      <c r="J121" s="36"/>
-    </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G122" s="36"/>
+        <v>10</v>
+      </c>
+      <c r="G121" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H121" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="I121" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="J121" s="36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D122" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E122" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F122" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G122" s="38"/>
     </row>
     <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>185</v>
+        <v>13</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="H123" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="I123" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="J123" s="36" t="s">
-        <v>10</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G123" s="36"/>
     </row>
     <row r="124" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="15" t="s">
@@ -4156,10 +4136,10 @@
         <v>12</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E124" s="15" t="s">
         <v>14</v>
@@ -4169,89 +4149,89 @@
       </c>
       <c r="G124" s="38"/>
     </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C125" s="3" t="s">
+    <row r="125" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D125" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E125" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F125" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="38"/>
+    </row>
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G126" s="36"/>
+    </row>
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D125" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G125" s="36"/>
-    </row>
-    <row r="126" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B126" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C126" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D126" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="E126" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F126" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G126" s="38"/>
-    </row>
-    <row r="127" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B127" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C127" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="D127" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="E127" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F127" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="38"/>
-    </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C128" s="3" t="s">
+      <c r="D127" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G127" s="36"/>
+    </row>
+    <row r="128" spans="1:10" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D128" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G128" s="36"/>
+      <c r="D128" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E128" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="F128" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G128" s="40"/>
     </row>
     <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
@@ -4261,79 +4241,90 @@
         <v>12</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G129" s="36"/>
     </row>
-    <row r="130" spans="1:10" ht="32" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B130" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C130" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D130" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="E130" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="F130" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G130" s="40"/>
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="36"/>
     </row>
     <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>26</v>
+        <v>175</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G131" s="36"/>
+        <v>10</v>
+      </c>
+      <c r="G131" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H131" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="I131" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="J131" s="36" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>184</v>
+        <v>40</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G132" s="36"/>
     </row>
@@ -4342,51 +4333,40 @@
         <v>4</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>73</v>
+        <v>174</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H133" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="I133" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="J133" s="36" t="s">
-        <v>10</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G133" s="36"/>
     </row>
     <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>183</v>
+        <v>62</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G134" s="36"/>
     </row>
@@ -4398,16 +4378,16 @@
         <v>12</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>130</v>
+        <v>175</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G135" s="36"/>
     </row>
@@ -4416,19 +4396,19 @@
         <v>4</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>74</v>
+        <v>16</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G136" s="36"/>
     </row>
@@ -4440,90 +4420,90 @@
         <v>12</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G137" s="36"/>
+      <c r="G137" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="H137" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="I137" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="J137" s="36" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F138" s="1" t="s">
+      <c r="A138" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F138" s="8" t="s">
         <v>8</v>
       </c>
       <c r="G138" s="36"/>
     </row>
     <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E139" s="3" t="s">
+      <c r="A139" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D139" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F139" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="H139" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="I139" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="J139" s="36" t="s">
-        <v>10</v>
-      </c>
+      <c r="E139" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G139" s="36"/>
     </row>
     <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C140" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D140" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F140" s="8" t="s">
-        <v>8</v>
+      <c r="A140" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G140" s="36"/>
     </row>
@@ -4532,19 +4512,19 @@
         <v>4</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D141" s="7" t="s">
-        <v>185</v>
+        <v>57</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>176</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F141" s="5" t="s">
-        <v>61</v>
+        <v>75</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="G141" s="36"/>
     </row>
@@ -4553,144 +4533,152 @@
         <v>4</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>182</v>
+        <v>49</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G142" s="36"/>
     </row>
     <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B143" s="5" t="s">
+      <c r="A143" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="36"/>
+    </row>
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B144" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C144" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D144" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="E144" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="F144" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="36"/>
+    </row>
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G145" s="36"/>
+    </row>
+    <row r="146" spans="1:11" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C143" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F143" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G143" s="36"/>
-    </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G144" s="36"/>
-    </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D145" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145" s="36"/>
-    </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B146" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C146" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D146" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="E146" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="F146" s="30" t="s">
+      <c r="D146" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F146" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="36"/>
-    </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D147" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E147" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F147" s="8" t="s">
+      <c r="H146" s="37"/>
+      <c r="I146" s="37"/>
+      <c r="J146" s="37"/>
+      <c r="K146" s="10"/>
+    </row>
+    <row r="147" spans="1:11" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F147" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G147" s="36"/>
+      <c r="H147" s="37"/>
+      <c r="I147" s="37"/>
+      <c r="J147" s="37"/>
+      <c r="K147" s="10"/>
     </row>
     <row r="148" spans="1:11" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F148" s="1" t="s">
+      <c r="A148" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B148" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C148" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D148" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="E148" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="F148" s="30" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="36"/>
@@ -4704,19 +4692,19 @@
         <v>4</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>24</v>
+        <v>170</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G149" s="36"/>
       <c r="H149" s="37"/>
@@ -4724,148 +4712,140 @@
       <c r="J149" s="37"/>
       <c r="K149" s="10"/>
     </row>
-    <row r="150" spans="1:11" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B150" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C150" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D150" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="E150" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="F150" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="36"/>
-      <c r="H150" s="37"/>
-      <c r="I150" s="37"/>
-      <c r="J150" s="37"/>
-      <c r="K150" s="10"/>
-    </row>
-    <row r="151" spans="1:11" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="F151" s="1" t="s">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G150" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H150" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="I150" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="J150" s="36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C151" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D151" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="E151" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F151" s="30" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="36"/>
-      <c r="H151" s="37"/>
-      <c r="I151" s="37"/>
-      <c r="J151" s="37"/>
-      <c r="K151" s="10"/>
     </row>
     <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>85</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G152" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="H152" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="I152" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="J152" s="36" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G152" s="36"/>
     </row>
     <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B153" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C153" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D153" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="E153" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="F153" s="30" t="s">
+      <c r="A153" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F153" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="36"/>
     </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>90</v>
+        <v>175</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>238</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G154" s="36"/>
     </row>
     <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>10</v>
+      <c r="A155" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F155" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="G155" s="36"/>
     </row>
@@ -4874,16 +4854,16 @@
         <v>4</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>174</v>
+        <v>98</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E156" s="6" t="s">
-        <v>247</v>
+        <v>175</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>10</v>
@@ -4891,22 +4871,22 @@
       <c r="G156" s="36"/>
     </row>
     <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B157" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D157" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E157" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F157" s="8" t="s">
+      <c r="A157" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F157" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G157" s="36"/>
@@ -4916,19 +4896,19 @@
         <v>4</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>184</v>
+        <v>32</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G158" s="36"/>
     </row>
@@ -4937,16 +4917,16 @@
         <v>4</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C159" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E159" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>8</v>
@@ -4958,19 +4938,19 @@
         <v>4</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="G160" s="36"/>
     </row>
@@ -4979,16 +4959,16 @@
         <v>4</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>153</v>
+        <v>57</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>8</v>
@@ -5000,122 +4980,122 @@
         <v>4</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>183</v>
+        <v>57</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G162" s="36"/>
+        <v>56</v>
+      </c>
+      <c r="G162" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H162" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="I162" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="J162" s="36" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>76</v>
+        <v>57</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G163" s="36"/>
+        <v>56</v>
+      </c>
+      <c r="G163" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H163" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="I163" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="J163" s="36" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>83</v>
+        <v>95</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G164" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="H164" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="I164" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="J164" s="36" t="s">
-        <v>8</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G164" s="36"/>
     </row>
     <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G165" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="H165" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="I165" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="J165" s="36" t="s">
-        <v>8</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G165" s="36"/>
     </row>
     <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>10</v>
@@ -5127,19 +5107,19 @@
         <v>4</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>185</v>
+        <v>95</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="G167" s="36"/>
     </row>
@@ -5148,19 +5128,19 @@
         <v>4</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>184</v>
+        <v>34</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G168" s="36"/>
     </row>
@@ -5169,16 +5149,16 @@
         <v>4</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>10</v>
@@ -5190,135 +5170,135 @@
         <v>4</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>185</v>
+        <v>172</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G170" s="36"/>
     </row>
     <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E171" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>10</v>
+      <c r="A171" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F171" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="G171" s="36"/>
     </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G172" s="36"/>
+    <row r="172" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B172" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C172" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E172" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="F172" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G172" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H172" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="I172" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="J172" s="38" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B173" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C173" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D173" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E173" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F173" s="8" t="s">
+      <c r="A173" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F173" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G173" s="36"/>
     </row>
-    <row r="174" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B174" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C174" s="15" t="s">
-        <v>44</v>
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="E174" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="F174" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="G174" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="H174" s="40" t="s">
-        <v>174</v>
-      </c>
-      <c r="I174" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="J174" s="38" t="s">
-        <v>61</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G174" s="36"/>
     </row>
     <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G175" s="36"/>
     </row>
@@ -5327,19 +5307,19 @@
         <v>4</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D176" s="6" t="s">
-        <v>185</v>
+        <v>62</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="G176" s="36"/>
     </row>
@@ -5348,19 +5328,19 @@
         <v>4</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>184</v>
+        <v>29</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G177" s="36"/>
     </row>
@@ -5369,139 +5349,139 @@
         <v>4</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>184</v>
+        <v>166</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G178" s="36"/>
+        <v>8</v>
+      </c>
+      <c r="G178" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H178" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="I178" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="J178" s="36" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D179" s="6" t="s">
-        <v>185</v>
+        <v>166</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G179" s="36"/>
+        <v>8</v>
+      </c>
+      <c r="G179" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H179" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="I179" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="J179" s="36" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B180" s="3" t="s">
+      <c r="A180" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D180" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G180" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C180" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E180" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G180" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="H180" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I180" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="J180" s="36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E181" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G181" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="H181" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I181" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="J181" s="36" t="s">
-        <v>8</v>
-      </c>
+      <c r="H180" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="I180" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="J180" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="K180" s="12"/>
+    </row>
+    <row r="181" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B181" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C181" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D181" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E181" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F181" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G181" s="38"/>
     </row>
     <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B182" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C182" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D182" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E182" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F182" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G182" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H182" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="I182" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="J182" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="K182" s="12"/>
+      <c r="A182" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G182" s="36"/>
     </row>
     <row r="183" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="15" t="s">
@@ -5511,10 +5491,10 @@
         <v>12</v>
       </c>
       <c r="C183" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D183" s="15" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E183" s="15" t="s">
         <v>15</v>
@@ -5524,87 +5504,87 @@
       </c>
       <c r="G183" s="38"/>
     </row>
-    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E184" s="3" t="s">
+    <row r="184" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B184" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C184" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D184" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E184" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F184" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G184" s="36"/>
-    </row>
-    <row r="185" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B185" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C185" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D185" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="E185" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F185" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G185" s="38"/>
-    </row>
-    <row r="186" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B186" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C186" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="D186" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="E186" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F186" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G186" s="38"/>
+      <c r="F184" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="38"/>
+    </row>
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G185" s="36"/>
+    </row>
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="36"/>
     </row>
     <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G187" s="36"/>
     </row>
@@ -5613,122 +5593,122 @@
         <v>4</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D188" s="2" t="s">
-        <v>184</v>
+      <c r="D188" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G188" s="36"/>
+      <c r="G188" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H188" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="I188" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="J188" s="36" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G189" s="36"/>
+      <c r="G189" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H189" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="I189" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="J189" s="36" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G190" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H190" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="I190" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="J190" s="36" t="s">
-        <v>10</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G190" s="36"/>
     </row>
     <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E191" s="3" t="s">
-        <v>82</v>
+        <v>174</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G191" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H191" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="I191" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="J191" s="36" t="s">
-        <v>10</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G191" s="36"/>
     </row>
     <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>44</v>
+        <v>12</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>8</v>
@@ -5742,58 +5722,59 @@
       <c r="B193" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C193" s="3" t="s">
-        <v>16</v>
+      <c r="C193" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>27</v>
+        <v>174</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G193" s="36"/>
     </row>
-    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E194" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F194" s="1" t="s">
+    <row r="194" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B194" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D194" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="E194" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F194" s="32" t="s">
         <v>8</v>
       </c>
       <c r="G194" s="36"/>
-    </row>
-    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E195" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F195" s="1" t="s">
+      <c r="K194" s="51"/>
+    </row>
+    <row r="195" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B195" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C195" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D195" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="E195" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F195" s="32" t="s">
         <v>8</v>
       </c>
       <c r="G195" s="36"/>
@@ -5803,38 +5784,37 @@
         <v>4</v>
       </c>
       <c r="B196" s="20" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C196" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D196" s="20" t="s">
-        <v>183</v>
+        <v>32</v>
+      </c>
+      <c r="D196" s="47" t="s">
+        <v>176</v>
       </c>
       <c r="E196" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F196" s="32" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="G196" s="36"/>
-      <c r="K196" s="51"/>
     </row>
     <row r="197" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A197" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B197" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C197" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D197" s="47" t="s">
-        <v>185</v>
+        <v>12</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="E197" s="20" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F197" s="32" t="s">
         <v>8</v>
@@ -5846,19 +5826,19 @@
         <v>4</v>
       </c>
       <c r="B198" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C198" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D198" s="47" t="s">
-        <v>185</v>
+        <v>12</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D198" s="20" t="s">
+        <v>174</v>
       </c>
       <c r="E198" s="20" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F198" s="32" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="G198" s="36"/>
     </row>
@@ -5867,39 +5847,39 @@
         <v>4</v>
       </c>
       <c r="B199" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C199" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D199" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E199" s="20" t="s">
-        <v>22</v>
+        <v>83</v>
+      </c>
+      <c r="C199" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D199" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="E199" s="17" t="s">
+        <v>146</v>
       </c>
       <c r="F199" s="32" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="G199" s="36"/>
     </row>
     <row r="200" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B200" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C200" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D200" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="E200" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F200" s="32" t="s">
+      <c r="A200" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B200" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C200" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="D200" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="E200" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F200" s="33" t="s">
         <v>8</v>
       </c>
       <c r="G200" s="36"/>
@@ -5909,340 +5889,338 @@
         <v>4</v>
       </c>
       <c r="B201" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C201" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="D201" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C201" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D201" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="E201" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F201" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="36"/>
+      <c r="K201" s="51"/>
+    </row>
+    <row r="202" spans="1:11" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B202" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C202" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D202" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E202" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="F202" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="40"/>
+      <c r="H202" s="40"/>
+      <c r="I202" s="40"/>
+      <c r="K202" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="E201" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="F201" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="G201" s="36"/>
-    </row>
-    <row r="202" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B202" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C202" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="D202" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="E202" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F202" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G202" s="36"/>
     </row>
     <row r="203" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A203" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B203" s="20" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="C203" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D203" s="20" t="s">
-        <v>184</v>
+        <v>32</v>
+      </c>
+      <c r="D203" s="47" t="s">
+        <v>176</v>
       </c>
       <c r="E203" s="20" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="F203" s="32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G203" s="36"/>
+      <c r="H203" s="40"/>
+      <c r="I203" s="40"/>
       <c r="K203" s="51"/>
     </row>
-    <row r="204" spans="1:11" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B204" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C204" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D204" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="E204" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F204" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="G204" s="40"/>
+    <row r="204" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B204" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C204" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="D204" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="E204" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F204" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="G204" s="36"/>
       <c r="H204" s="40"/>
       <c r="I204" s="40"/>
-      <c r="K204" s="34" t="s">
-        <v>194</v>
-      </c>
+      <c r="K204" s="51"/>
     </row>
     <row r="205" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A205" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B205" s="20" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C205" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D205" s="47" t="s">
-        <v>185</v>
+        <v>58</v>
+      </c>
+      <c r="D205" s="20" t="s">
+        <v>175</v>
       </c>
       <c r="E205" s="20" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F205" s="32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G205" s="36"/>
-      <c r="H205" s="40"/>
       <c r="I205" s="40"/>
-      <c r="K205" s="51"/>
+      <c r="K205" s="35"/>
     </row>
     <row r="206" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B206" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C206" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="D206" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="E206" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F206" s="33" t="s">
-        <v>61</v>
+      <c r="A206" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B206" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C206" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D206" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="E206" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F206" s="32" t="s">
+        <v>56</v>
       </c>
       <c r="G206" s="36"/>
-      <c r="H206" s="40"/>
       <c r="I206" s="40"/>
-      <c r="K206" s="51"/>
-    </row>
-    <row r="207" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B207" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C207" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D207" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="E207" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F207" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G207" s="36"/>
-      <c r="I207" s="40"/>
-      <c r="K207" s="35"/>
-    </row>
-    <row r="208" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B208" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C208" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D208" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="E208" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="F208" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="G208" s="36"/>
-      <c r="I208" s="40"/>
-      <c r="K208" s="35"/>
+      <c r="K206" s="35"/>
+    </row>
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B207" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C207" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D207" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="E207" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="F207" s="54" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F208" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="B209" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="C209" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="D209" s="54" t="s">
-        <v>185</v>
-      </c>
-      <c r="E209" s="53" t="s">
-        <v>210</v>
-      </c>
-      <c r="F209" s="54" t="s">
-        <v>185</v>
+      <c r="A209" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D209" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F209" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>185</v>
+      <c r="A210" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D210" s="7" t="s">
+        <v>176</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F210" s="5" t="s">
-        <v>8</v>
+        <v>203</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="12" t="s">
-        <v>4</v>
+        <v>179</v>
       </c>
       <c r="B211" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D211" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="B212" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C212" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C211" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D211" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F211" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B212" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C212" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D212" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F212" s="1" t="s">
-        <v>61</v>
+      <c r="D212" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="E212" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F212" s="30" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="B213" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C213" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D213" s="7" t="s">
-        <v>185</v>
+      <c r="A213" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>212</v>
+        <v>15</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
     </row>
     <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="B214" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C214" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D214" s="56" t="s">
-        <v>185</v>
-      </c>
-      <c r="E214" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="F214" s="30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D215" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>15</v>
+        <v>179</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D216" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>14</v>
+        <v>179</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E216" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>8</v>
@@ -6250,27 +6228,27 @@
     </row>
     <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>174</v>
+        <v>179</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E217" s="3" t="s">
-        <v>218</v>
+        <v>174</v>
+      </c>
+      <c r="E217" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="10" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>12</v>
@@ -6279,10 +6257,10 @@
         <v>16</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>8</v>
@@ -6290,7 +6268,7 @@
     </row>
     <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="10" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>12</v>
@@ -6299,779 +6277,815 @@
         <v>16</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E219" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E220" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="B221" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C221" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D221" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="E221" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="F221" s="30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B222" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C222" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D222" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E222" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F222" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D223" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F223" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C224" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D224" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="E224" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F224" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="B225" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C225" s="55"/>
+    </row>
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="B226" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C226" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D226" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="E226" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="F226" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E227" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F219" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C220" s="2" t="s">
+      <c r="F227" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E229" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E230" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H232" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="I232" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="J232" s="36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H233" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="I233" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="J233" s="36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D234" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="E234" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="F234" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="B235" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C235" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D235" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="E235" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="F235" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D239" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="E239" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="F239" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="B240" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="C240" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="D240" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B241" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C241" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D241" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E241" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F241" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C242" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D220" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E220" s="4" t="s">
+      <c r="D242" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E242" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F220" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C221" s="2" t="s">
+      <c r="F242" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C243" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D221" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E221" s="4" t="s">
+      <c r="D243" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E243" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E244" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F221" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B222" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C222" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D222" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E222" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="F222" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="B223" s="30" t="s">
+      <c r="F244" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E245" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E246" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E247" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E248" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E249" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E250" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E251" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E252" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E253" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D254" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G255" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H255" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="I255" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="J255" s="36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B257" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C257" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C223" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D223" s="56" t="s">
-        <v>185</v>
-      </c>
-      <c r="E223" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="F223" s="30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="B224" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C224" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D224" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="E224" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="F224" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="B225" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C225" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D225" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F225" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="B226" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C226" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D226" s="57" t="s">
-        <v>185</v>
-      </c>
-      <c r="E226" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F226" s="30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="B227" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C227" s="55"/>
-    </row>
-    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="B228" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="C228" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="D228" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="E228" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="F228" s="30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="B229" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C229" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D229" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E229" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F229" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="B230" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C230" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D230" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E230" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F230" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A231" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="B231" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C231" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D231" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E231" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="F231" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="B232" s="3" t="s">
+      <c r="D257" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="E257" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="F257" s="30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A258" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B258" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C232" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D232" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E232" s="58" t="s">
-        <v>219</v>
-      </c>
-      <c r="F232" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D233" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F233" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F234" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F235" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D236" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="E236" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="F236" s="30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="B237" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C237" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D237" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="E237" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="F237" s="30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F238" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E239" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F239" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="B240" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C240" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D240" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E240" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F240" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B241" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C241" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D241" s="56" t="s">
-        <v>185</v>
-      </c>
-      <c r="E241" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="F241" s="30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="56" t="s">
-        <v>188</v>
-      </c>
-      <c r="B242" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="C242" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="D242" s="56" t="s">
-        <v>185</v>
-      </c>
-      <c r="E242" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F242" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="B243" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C243" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D243" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E243" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="F243" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B244" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C244" s="4" t="s">
+      <c r="C258" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D244" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E244" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="F244" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="B245" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C245" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E245" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F245" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="B246" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C246" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E246" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F246" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="B247" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C247" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E247" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="F247" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="B248" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C248" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E248" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="F248" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="B249" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C249" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E249" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="F249" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="B250" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C250" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E250" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F250" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="B251" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C251" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E251" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F251" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="B252" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C252" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D252" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E252" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F252" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B253" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C253" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D253" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E253" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="F253" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B254" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C254" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E254" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F254" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B255" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C255" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D255" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E255" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F255" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B256" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C256" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E256" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F256" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B257" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C257" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E257" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F257" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D258" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>230</v>
+      <c r="D258" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>10</v>
@@ -7079,41 +7093,41 @@
     </row>
     <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>72</v>
+        <v>4</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E259" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E259" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B260" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C260" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="F259" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B260" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C260" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E260" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="F260" s="1" t="s">
+      <c r="D260" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="E260" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="F260" s="30" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7121,59 +7135,59 @@
       <c r="A261" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B261" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C261" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D261" s="56" t="s">
-        <v>185</v>
-      </c>
-      <c r="E261" s="30" t="s">
-        <v>242</v>
+      <c r="B261" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C261" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="D261" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="E261" s="56" t="s">
+        <v>223</v>
       </c>
       <c r="F261" s="30" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
     </row>
     <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B262" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C262" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D262" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E262" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F262" s="1" t="s">
-        <v>10</v>
+      <c r="A262" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B262" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C262" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="D262" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="E262" s="56" t="s">
+        <v>224</v>
+      </c>
+      <c r="F262" s="30" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B263" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C263" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E263" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="F263" s="1" t="s">
+      <c r="A263" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B263" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C263" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="D263" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="E263" s="56" t="s">
+        <v>225</v>
+      </c>
+      <c r="F263" s="30" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7185,13 +7199,13 @@
         <v>12</v>
       </c>
       <c r="C264" s="56" t="s">
-        <v>233</v>
+        <v>16</v>
       </c>
       <c r="D264" s="30" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E264" s="56" t="s">
-        <v>234</v>
+        <v>125</v>
       </c>
       <c r="F264" s="30" t="s">
         <v>8</v>
@@ -7205,95 +7219,95 @@
         <v>12</v>
       </c>
       <c r="C265" s="56" t="s">
-        <v>233</v>
+        <v>16</v>
       </c>
       <c r="D265" s="30" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E265" s="56" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="F265" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B266" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="C266" s="56" t="s">
-        <v>233</v>
-      </c>
-      <c r="D266" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="E266" s="56" t="s">
-        <v>236</v>
-      </c>
-      <c r="F266" s="30" t="s">
+      <c r="A266" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E266" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F266" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B267" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="C267" s="56" t="s">
-        <v>233</v>
-      </c>
-      <c r="D267" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="E267" s="56" t="s">
-        <v>237</v>
-      </c>
-      <c r="F267" s="30" t="s">
+      <c r="A267" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E267" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F267" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B268" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="C268" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D268" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="E268" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="F268" s="30" t="s">
+      <c r="A268" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B268" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C268" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D268" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E268" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="F268" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B269" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="C269" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D269" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="E269" s="56" t="s">
-        <v>228</v>
-      </c>
-      <c r="F269" s="30" t="s">
+      <c r="A269" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E269" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F269" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7305,13 +7319,13 @@
         <v>12</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E270" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>8</v>
@@ -7325,96 +7339,96 @@
         <v>12</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E271" s="4" t="s">
-        <v>134</v>
+        <v>229</v>
       </c>
       <c r="F271" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B272" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C272" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D272" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E272" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="F272" s="1" t="s">
-        <v>8</v>
+      <c r="A272" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C272" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D272" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E272" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F272" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B273" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C273" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D273" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E273" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="F273" s="6" t="s">
+      <c r="A273" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D273" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F273" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B274" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C274" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D274" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E274" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="F274" s="1" t="s">
-        <v>8</v>
+      <c r="A274" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D274" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F274" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B275" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C275" s="4" t="s">
-        <v>114</v>
+      <c r="B275" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E275" s="4" t="s">
-        <v>240</v>
+        <v>175</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -7422,151 +7436,136 @@
         <v>4</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E276" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E276" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E277" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="B278" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C278" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D278" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="E278" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="F276" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B277" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C277" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D277" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E277" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="F277" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B278" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C278" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D278" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E278" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="F278" s="5" t="s">
-        <v>61</v>
+      <c r="F278" s="32" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B279" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C279" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D279" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E279" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F279" s="5" t="s">
+      <c r="A279" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="B279" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C279" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="D279" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="E279" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="F279" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B280" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C280" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D280" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E280" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F280" s="5" t="s">
-        <v>10</v>
+      <c r="A280" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="B280" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C280" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="D280" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="E280" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="F280" s="30" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="10" t="s">
+      <c r="A281" s="55" t="s">
         <v>4</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E281" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F281" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A282" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B282" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C282" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D282" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E282" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="F282" s="1" t="s">
-        <v>10</v>
+        <v>174</v>
+      </c>
+      <c r="E281" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="F281" s="30" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K282" xr:uid="{8B1360B6-23BC-4F49-9C86-2B3B194A8FE8}">
-    <filterColumn colId="4">
+  <autoFilter ref="A1:K281" xr:uid="{8B1360B6-23BC-4F49-9C86-2B3B194A8FE8}">
+    <filterColumn colId="1">
       <filters>
-        <filter val="Ammonium (NH4)"/>
+        <filter val="Climate Mitigation"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Carbon Emissions"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K208">
-    <sortCondition ref="A2:A208"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K206">
+    <sortCondition ref="A2:A206"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/normative-effects.xlsx
+++ b/data/normative-effects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephen.wood/Box Sync/Work/The Nature Conservancy/Global Soils/AgEvidence/code-and-data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A0C46D-1BB8-1841-8A4E-2F493802B889}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFC0C7C-F1FD-294A-ACAC-5882CAF2E788}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="500" windowWidth="26280" windowHeight="16620" xr2:uid="{E2614878-5E79-439B-BF47-44ECB7DBED54}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$283</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$288</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="244">
   <si>
     <t>Review</t>
   </si>
@@ -366,12 +366,6 @@
     <t>Corn stalk nitrogen content</t>
   </si>
   <si>
-    <t>Soybean stalk nitrogen content</t>
-  </si>
-  <si>
-    <t>Corn nitrogen content</t>
-  </si>
-  <si>
     <t>Soil moisture</t>
   </si>
   <si>
@@ -435,9 +429,6 @@
     <t>Nitrogen Emissions</t>
   </si>
   <si>
-    <t>Nitrous oxide (N20)</t>
-  </si>
-  <si>
     <t>Nitric oxide (NO)</t>
   </si>
   <si>
@@ -450,9 +441,6 @@
     <t>Soybean aboveground biomass</t>
   </si>
   <si>
-    <t>Crop Nutrient Content</t>
-  </si>
-  <si>
     <t>Corn nitrogen uptake</t>
   </si>
   <si>
@@ -591,9 +579,6 @@
     <t>Corn Sap Flow</t>
   </si>
   <si>
-    <t>Soybean Nitrogen Content</t>
-  </si>
-  <si>
     <t>Evapotranspiration</t>
   </si>
   <si>
@@ -642,18 +627,6 @@
     <t>Nitrogen Content</t>
   </si>
   <si>
-    <t>Corn phosphorus content</t>
-  </si>
-  <si>
-    <t>Corn potassium content</t>
-  </si>
-  <si>
-    <t>Soybean Phosphorus Content</t>
-  </si>
-  <si>
-    <t>Soybean Potassium Content</t>
-  </si>
-  <si>
     <t>Soil Temperature</t>
   </si>
   <si>
@@ -669,24 +642,12 @@
     <t>Annual Nitrous Oxide Emissions</t>
   </si>
   <si>
-    <t>Nitrous Oxide During Winter</t>
-  </si>
-  <si>
     <t>Corn and soybean aboveground biomass</t>
   </si>
   <si>
     <t>Decomposition rate of surface residues</t>
   </si>
   <si>
-    <t>Nitrous Oxide During Growing Season</t>
-  </si>
-  <si>
-    <t>Corn Nitrogen Content</t>
-  </si>
-  <si>
-    <t>Stalk Nitrogen Content</t>
-  </si>
-  <si>
     <t>Corn Height</t>
   </si>
   <si>
@@ -705,24 +666,6 @@
     <t>Weed Community Biomass</t>
   </si>
   <si>
-    <t>Tissue Nitrogen Content</t>
-  </si>
-  <si>
-    <t>Corn Nutrient Content</t>
-  </si>
-  <si>
-    <t>Nitrogen Use Efficiency</t>
-  </si>
-  <si>
-    <t>Soybean Nutrient Content</t>
-  </si>
-  <si>
-    <t>Phosphorus Use Efficiency</t>
-  </si>
-  <si>
-    <t>Tissue Phosphorus Content</t>
-  </si>
-  <si>
     <t>Corn-Soybean Nitrogen Use Efficiency</t>
   </si>
   <si>
@@ -747,27 +690,6 @@
     <t>Methane And Carbon Dioxide</t>
   </si>
   <si>
-    <t>Grain Nitrogen</t>
-  </si>
-  <si>
-    <t>Root Nitrogen</t>
-  </si>
-  <si>
-    <t>Stover Micro-Nutrients</t>
-  </si>
-  <si>
-    <t>Stover Nitrogen</t>
-  </si>
-  <si>
-    <t>Stover Phosphorus</t>
-  </si>
-  <si>
-    <t>Tissue Nitrogen</t>
-  </si>
-  <si>
-    <t>Tissue Phosphorus</t>
-  </si>
-  <si>
     <t>Fungal Biomass</t>
   </si>
   <si>
@@ -775,6 +697,78 @@
   </si>
   <si>
     <t>Weed Community Diversity</t>
+  </si>
+  <si>
+    <t>Growing Season Nitrous Oxide</t>
+  </si>
+  <si>
+    <t>Offseason Nitrous Oxide</t>
+  </si>
+  <si>
+    <t>Corn Grain Nitrogen Content</t>
+  </si>
+  <si>
+    <t>Soybean Grain Nitrogen Content</t>
+  </si>
+  <si>
+    <t>Plant Nutrient Content</t>
+  </si>
+  <si>
+    <t>Corn Stalk Nitrogen Content</t>
+  </si>
+  <si>
+    <t>Soybean Tissue Nitrogen Content</t>
+  </si>
+  <si>
+    <t>Microbial Residues</t>
+  </si>
+  <si>
+    <t>Corn Grain Weight &amp; Moisture Content</t>
+  </si>
+  <si>
+    <t>Corn Oil, Fiber, &amp; Protein</t>
+  </si>
+  <si>
+    <t>Corn Nitrogen Use Efficiency</t>
+  </si>
+  <si>
+    <t>Soybean Phosphorus Use Efficiency</t>
+  </si>
+  <si>
+    <t>Soybean Tissue Phosphorus Content</t>
+  </si>
+  <si>
+    <t>Soybean Oil, Fiber, &amp; Protein</t>
+  </si>
+  <si>
+    <t>Soybean Grain Weight &amp; Moisture Content</t>
+  </si>
+  <si>
+    <t>Nitrous Oxide</t>
+  </si>
+  <si>
+    <t>Corn Grain Phosphorus Content</t>
+  </si>
+  <si>
+    <t>Soybean Grain Phosphorus Content</t>
+  </si>
+  <si>
+    <t>Soybean Grain Potassium Content</t>
+  </si>
+  <si>
+    <t>Corn Phosphorus Use Efficiency</t>
+  </si>
+  <si>
+    <t>Corn Root Nitrogen Content</t>
+  </si>
+  <si>
+    <t>Corn Stalk Micro-Nutrient Content</t>
+  </si>
+  <si>
+    <t>Corn Stalk Phosphorus Content</t>
+  </si>
+  <si>
+    <t>Corn Grain Potassium Content</t>
   </si>
 </sst>
 </file>
@@ -926,7 +920,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -1014,7 +1008,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1332,12 +1325,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5790928A-FDEF-4501-A63F-C28CBDB4D383}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K283"/>
+  <dimension ref="A1:K289"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E284" sqref="E284"/>
+      <selection pane="bottomLeft" activeCell="E290" sqref="E290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1367,42 +1360,42 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K1" s="42" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>35</v>
@@ -1416,16 +1409,16 @@
     </row>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>26</v>
@@ -1437,40 +1430,40 @@
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="36"/>
       <c r="K4" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>78</v>
@@ -1482,16 +1475,16 @@
     </row>
     <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
@@ -1503,7 +1496,7 @@
     </row>
     <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>18</v>
@@ -1512,7 +1505,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>28</v>
@@ -1524,7 +1517,7 @@
     </row>
     <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B8" s="28" t="s">
         <v>47</v>
@@ -1533,10 +1526,10 @@
         <v>48</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F8" s="30" t="s">
         <v>9</v>
@@ -1545,7 +1538,7 @@
     </row>
     <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>18</v>
@@ -1554,7 +1547,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>33</v>
@@ -1566,10 +1559,10 @@
         <v>18</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J9" s="36" t="s">
         <v>9</v>
@@ -1577,7 +1570,7 @@
     </row>
     <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>11</v>
@@ -1586,7 +1579,7 @@
         <v>93</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>13</v>
@@ -1598,7 +1591,7 @@
     </row>
     <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
@@ -1607,7 +1600,7 @@
         <v>95</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>13</v>
@@ -1619,7 +1612,7 @@
     </row>
     <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
@@ -1628,10 +1621,10 @@
         <v>94</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>110</v>
+        <v>222</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>8</v>
@@ -1640,7 +1633,7 @@
     </row>
     <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>47</v>
@@ -1649,7 +1642,7 @@
         <v>52</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>58</v>
@@ -1661,7 +1654,7 @@
     </row>
     <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>11</v>
@@ -1670,7 +1663,7 @@
         <v>15</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>106</v>
@@ -1682,19 +1675,19 @@
     </row>
     <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>8</v>
@@ -1703,7 +1696,7 @@
     </row>
     <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>47</v>
@@ -1712,10 +1705,10 @@
         <v>16</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
@@ -1727,7 +1720,7 @@
         <v>16</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J16" s="36" t="s">
         <v>9</v>
@@ -1735,7 +1728,7 @@
     </row>
     <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B17" s="28" t="s">
         <v>47</v>
@@ -1744,10 +1737,10 @@
         <v>48</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F17" s="30" t="s">
         <v>9</v>
@@ -1756,19 +1749,19 @@
     </row>
     <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>8</v>
@@ -1777,7 +1770,7 @@
     </row>
     <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>18</v>
@@ -1786,7 +1779,7 @@
         <v>30</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>39</v>
@@ -1798,7 +1791,7 @@
     </row>
     <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>18</v>
@@ -1807,7 +1800,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>21</v>
@@ -1819,7 +1812,7 @@
     </row>
     <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B21" s="28" t="s">
         <v>47</v>
@@ -1828,10 +1821,10 @@
         <v>48</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>9</v>
@@ -1840,7 +1833,7 @@
     </row>
     <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>47</v>
@@ -1849,10 +1842,10 @@
         <v>59</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>8</v>
@@ -1861,7 +1854,7 @@
     </row>
     <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>47</v>
@@ -1870,10 +1863,10 @@
         <v>59</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>8</v>
@@ -1882,7 +1875,7 @@
     </row>
     <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>47</v>
@@ -1891,10 +1884,10 @@
         <v>59</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>8</v>
@@ -1903,7 +1896,7 @@
     </row>
     <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>47</v>
@@ -1912,10 +1905,10 @@
         <v>59</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>8</v>
@@ -1924,7 +1917,7 @@
     </row>
     <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>47</v>
@@ -1933,10 +1926,10 @@
         <v>59</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>8</v>
@@ -1945,7 +1938,7 @@
     </row>
     <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>47</v>
@@ -1954,10 +1947,10 @@
         <v>59</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>8</v>
@@ -1969,7 +1962,7 @@
         <v>30</v>
       </c>
       <c r="I27" s="36" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J27" s="36" t="s">
         <v>8</v>
@@ -1977,7 +1970,7 @@
     </row>
     <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>47</v>
@@ -1986,10 +1979,10 @@
         <v>59</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>8</v>
@@ -2001,7 +1994,7 @@
         <v>30</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J28" s="36" t="s">
         <v>8</v>
@@ -2009,7 +2002,7 @@
     </row>
     <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>18</v>
@@ -2018,7 +2011,7 @@
         <v>30</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>38</v>
@@ -2030,7 +2023,7 @@
     </row>
     <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>83</v>
@@ -2039,7 +2032,7 @@
         <v>86</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>87</v>
@@ -2051,16 +2044,16 @@
     </row>
     <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>76</v>
@@ -2072,7 +2065,7 @@
     </row>
     <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>47</v>
@@ -2081,7 +2074,7 @@
         <v>56</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>56</v>
@@ -2093,7 +2086,7 @@
     </row>
     <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>18</v>
@@ -2102,7 +2095,7 @@
         <v>24</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>25</v>
@@ -2114,7 +2107,7 @@
     </row>
     <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>83</v>
@@ -2123,7 +2116,7 @@
         <v>86</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>81</v>
@@ -2135,16 +2128,16 @@
     </row>
     <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>81</v>
@@ -2156,7 +2149,7 @@
     </row>
     <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B36" s="28" t="s">
         <v>47</v>
@@ -2165,10 +2158,10 @@
         <v>48</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F36" s="30" t="s">
         <v>9</v>
@@ -2177,16 +2170,16 @@
     </row>
     <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>71</v>
       </c>
       <c r="C37" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>156</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>82</v>
@@ -2198,7 +2191,7 @@
     </row>
     <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>18</v>
@@ -2207,7 +2200,7 @@
         <v>19</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>41</v>
@@ -2219,7 +2212,7 @@
     </row>
     <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>47</v>
@@ -2228,7 +2221,7 @@
         <v>52</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>64</v>
@@ -2240,7 +2233,7 @@
     </row>
     <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>18</v>
@@ -2249,7 +2242,7 @@
         <v>19</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>42</v>
@@ -2261,7 +2254,7 @@
     </row>
     <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>18</v>
@@ -2270,22 +2263,22 @@
         <v>19</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>9</v>
       </c>
       <c r="G41" s="36"/>
       <c r="K41" s="43" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>18</v>
@@ -2294,10 +2287,10 @@
         <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>46</v>
@@ -2306,16 +2299,16 @@
     </row>
     <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>6</v>
@@ -2330,7 +2323,7 @@
         <v>24</v>
       </c>
       <c r="I43" s="36" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="J43" s="36" t="s">
         <v>8</v>
@@ -2338,7 +2331,7 @@
     </row>
     <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>18</v>
@@ -2347,7 +2340,7 @@
         <v>24</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>29</v>
@@ -2359,10 +2352,10 @@
         <v>5</v>
       </c>
       <c r="H44" s="37" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I44" s="37" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J44" s="37" t="s">
         <v>8</v>
@@ -2371,7 +2364,7 @@
     </row>
     <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>18</v>
@@ -2380,10 +2373,10 @@
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>46</v>
@@ -2393,7 +2386,7 @@
     </row>
     <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>11</v>
@@ -2402,7 +2395,7 @@
         <v>93</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>14</v>
@@ -2415,7 +2408,7 @@
     </row>
     <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>11</v>
@@ -2424,7 +2417,7 @@
         <v>95</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>14</v>
@@ -2436,7 +2429,7 @@
     </row>
     <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>47</v>
@@ -2445,7 +2438,7 @@
         <v>52</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>70</v>
@@ -2457,7 +2450,7 @@
     </row>
     <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>47</v>
@@ -2466,7 +2459,7 @@
         <v>66</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>67</v>
@@ -2478,19 +2471,19 @@
     </row>
     <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>8</v>
@@ -2499,19 +2492,19 @@
     </row>
     <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>46</v>
@@ -2520,16 +2513,16 @@
     </row>
     <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>36</v>
@@ -2541,19 +2534,19 @@
     </row>
     <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B53" s="28" t="s">
         <v>83</v>
       </c>
       <c r="C53" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="E53" s="28" t="s">
         <v>127</v>
-      </c>
-      <c r="D53" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="E53" s="28" t="s">
-        <v>129</v>
       </c>
       <c r="F53" s="30" t="s">
         <v>9</v>
@@ -2564,16 +2557,16 @@
     </row>
     <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B54" s="44" t="s">
         <v>18</v>
       </c>
       <c r="C54" s="46" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D54" s="48" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E54" s="49" t="s">
         <v>37</v>
@@ -2587,7 +2580,7 @@
     </row>
     <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B55" s="28" t="s">
         <v>47</v>
@@ -2596,10 +2589,10 @@
         <v>48</v>
       </c>
       <c r="D55" s="29" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F55" s="30" t="s">
         <v>9</v>
@@ -2610,7 +2603,7 @@
     </row>
     <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B56" s="28" t="s">
         <v>47</v>
@@ -2619,7 +2612,7 @@
         <v>48</v>
       </c>
       <c r="D56" s="29" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E56" s="28" t="s">
         <v>50</v>
@@ -2630,12 +2623,12 @@
       <c r="G56" s="36"/>
       <c r="I56" s="38"/>
       <c r="K56" s="50" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B57" s="15" t="s">
         <v>11</v>
@@ -2644,7 +2637,7 @@
         <v>15</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E57" s="15" t="s">
         <v>107</v>
@@ -2656,7 +2649,7 @@
     </row>
     <row r="58" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>47</v>
@@ -2665,13 +2658,13 @@
         <v>16</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G58" s="36" t="s">
         <v>11</v>
@@ -2680,7 +2673,7 @@
         <v>16</v>
       </c>
       <c r="I58" s="36" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J58" s="36" t="s">
         <v>9</v>
@@ -2688,7 +2681,7 @@
     </row>
     <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>47</v>
@@ -2697,7 +2690,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>96</v>
@@ -2709,7 +2702,7 @@
     </row>
     <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>47</v>
@@ -2718,7 +2711,7 @@
         <v>56</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>103</v>
@@ -2730,7 +2723,7 @@
     </row>
     <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>11</v>
@@ -2739,7 +2732,7 @@
         <v>93</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>13</v>
@@ -2751,7 +2744,7 @@
     </row>
     <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>11</v>
@@ -2760,7 +2753,7 @@
         <v>95</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>13</v>
@@ -2772,7 +2765,7 @@
     </row>
     <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>11</v>
@@ -2781,7 +2774,7 @@
         <v>16</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>91</v>
@@ -2793,7 +2786,7 @@
     </row>
     <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>11</v>
@@ -2802,10 +2795,10 @@
         <v>15</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>8</v>
@@ -2814,7 +2807,7 @@
     </row>
     <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>47</v>
@@ -2823,10 +2816,10 @@
         <v>56</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>9</v>
@@ -2838,7 +2831,7 @@
         <v>16</v>
       </c>
       <c r="I65" s="36" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J65" s="36" t="s">
         <v>9</v>
@@ -2846,7 +2839,7 @@
     </row>
     <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>47</v>
@@ -2855,10 +2848,10 @@
         <v>56</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>9</v>
@@ -2870,7 +2863,7 @@
         <v>16</v>
       </c>
       <c r="I66" s="36" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J66" s="36" t="s">
         <v>9</v>
@@ -2878,7 +2871,7 @@
     </row>
     <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>11</v>
@@ -2887,10 +2880,10 @@
         <v>15</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>9</v>
@@ -2901,7 +2894,7 @@
     </row>
     <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>11</v>
@@ -2910,10 +2903,10 @@
         <v>16</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>9</v>
@@ -2925,7 +2918,7 @@
         <v>52</v>
       </c>
       <c r="I68" s="39" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J68" s="36" t="s">
         <v>9</v>
@@ -2933,7 +2926,7 @@
     </row>
     <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>47</v>
@@ -2942,7 +2935,7 @@
         <v>102</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>105</v>
@@ -2954,7 +2947,7 @@
     </row>
     <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>47</v>
@@ -2963,7 +2956,7 @@
         <v>52</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>97</v>
@@ -2975,7 +2968,7 @@
     </row>
     <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>47</v>
@@ -2984,7 +2977,7 @@
         <v>52</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>98</v>
@@ -2996,7 +2989,7 @@
     </row>
     <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>11</v>
@@ -3005,7 +2998,7 @@
         <v>93</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>14</v>
@@ -3017,7 +3010,7 @@
     </row>
     <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>11</v>
@@ -3026,10 +3019,10 @@
         <v>94</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>8</v>
@@ -3038,7 +3031,7 @@
     </row>
     <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>11</v>
@@ -3047,7 +3040,7 @@
         <v>95</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>14</v>
@@ -3059,7 +3052,7 @@
     </row>
     <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>11</v>
@@ -3068,7 +3061,7 @@
         <v>16</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>92</v>
@@ -3080,7 +3073,7 @@
     </row>
     <row r="76" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B76" s="15" t="s">
         <v>11</v>
@@ -3089,10 +3082,10 @@
         <v>15</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="F76" s="25" t="s">
         <v>8</v>
@@ -3101,7 +3094,7 @@
     </row>
     <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>11</v>
@@ -3110,10 +3103,10 @@
         <v>15</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>8</v>
@@ -3122,7 +3115,7 @@
     </row>
     <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>47</v>
@@ -3131,7 +3124,7 @@
         <v>56</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>104</v>
@@ -3146,7 +3139,7 @@
         <v>16</v>
       </c>
       <c r="I78" s="36" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J78" s="36" t="s">
         <v>9</v>
@@ -3154,7 +3147,7 @@
     </row>
     <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>11</v>
@@ -3163,10 +3156,10 @@
         <v>15</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>8</v>
@@ -3174,12 +3167,12 @@
       <c r="G79" s="36"/>
       <c r="I79" s="36"/>
       <c r="K79" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>47</v>
@@ -3188,7 +3181,7 @@
         <v>52</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>99</v>
@@ -3200,7 +3193,7 @@
     </row>
     <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>18</v>
@@ -3209,7 +3202,7 @@
         <v>30</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>44</v>
@@ -3221,7 +3214,7 @@
     </row>
     <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>47</v>
@@ -3230,10 +3223,10 @@
         <v>56</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>9</v>
@@ -3242,7 +3235,7 @@
     </row>
     <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B83" s="28" t="s">
         <v>47</v>
@@ -3251,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E83" s="28" t="s">
         <v>100</v>
@@ -3265,7 +3258,7 @@
     </row>
     <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B84" s="28" t="s">
         <v>47</v>
@@ -3274,7 +3267,7 @@
         <v>52</v>
       </c>
       <c r="D84" s="28" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E84" s="28" t="s">
         <v>101</v>
@@ -3285,12 +3278,12 @@
       <c r="G84" s="36"/>
       <c r="I84" s="38"/>
       <c r="K84" s="50" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>11</v>
@@ -3299,7 +3292,7 @@
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>13</v>
@@ -3311,7 +3304,7 @@
     </row>
     <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>11</v>
@@ -3320,7 +3313,7 @@
         <v>95</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>13</v>
@@ -3332,7 +3325,7 @@
     </row>
     <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>11</v>
@@ -3341,10 +3334,10 @@
         <v>15</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>8</v>
@@ -3353,7 +3346,7 @@
     </row>
     <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>11</v>
@@ -3362,10 +3355,10 @@
         <v>94</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>8</v>
@@ -3374,19 +3367,19 @@
     </row>
     <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>8</v>
@@ -3395,7 +3388,7 @@
     </row>
     <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>11</v>
@@ -3404,10 +3397,10 @@
         <v>16</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>9</v>
@@ -3416,19 +3409,19 @@
     </row>
     <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>46</v>
@@ -3437,7 +3430,7 @@
     </row>
     <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>71</v>
@@ -3446,10 +3439,10 @@
         <v>87</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>46</v>
@@ -3458,19 +3451,19 @@
     </row>
     <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>46</v>
@@ -3479,7 +3472,7 @@
     </row>
     <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>71</v>
@@ -3488,10 +3481,10 @@
         <v>87</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>46</v>
@@ -3500,19 +3493,19 @@
     </row>
     <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>46</v>
@@ -3521,7 +3514,7 @@
     </row>
     <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>71</v>
@@ -3530,10 +3523,10 @@
         <v>87</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>46</v>
@@ -3542,7 +3535,7 @@
     </row>
     <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>83</v>
@@ -3551,7 +3544,7 @@
         <v>86</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>87</v>
@@ -3563,19 +3556,19 @@
     </row>
     <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>9</v>
@@ -3584,31 +3577,31 @@
     </row>
     <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>132</v>
+        <v>220</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G99" s="36"/>
       <c r="K99" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>11</v>
@@ -3617,7 +3610,7 @@
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>14</v>
@@ -3629,7 +3622,7 @@
     </row>
     <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>11</v>
@@ -3638,10 +3631,10 @@
         <v>15</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>8</v>
@@ -3649,12 +3642,12 @@
       <c r="G101" s="36"/>
       <c r="I101" s="36"/>
       <c r="K101" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>11</v>
@@ -3663,10 +3656,10 @@
         <v>94</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>8</v>
@@ -3675,7 +3668,7 @@
     </row>
     <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>11</v>
@@ -3684,10 +3677,10 @@
         <v>94</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>8</v>
@@ -3696,68 +3689,68 @@
     </row>
     <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>109</v>
+        <v>123</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="G104" s="36"/>
     </row>
     <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C105" s="2" t="s">
+      <c r="A105" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="B105" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C105" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>46</v>
+      <c r="D105" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="E105" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="F105" s="30" t="s">
+        <v>9</v>
       </c>
       <c r="G105" s="36"/>
+      <c r="H105" s="40"/>
+      <c r="I105" s="40"/>
     </row>
     <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="B106" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="C106" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="D106" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="E106" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="F106" s="30" t="s">
-        <v>9</v>
+      <c r="A106" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="G106" s="36"/>
-      <c r="H106" s="40"/>
-      <c r="I106" s="40"/>
     </row>
     <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="12" t="s">
@@ -3767,13 +3760,13 @@
         <v>18</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>8</v>
@@ -3788,13 +3781,13 @@
         <v>18</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>8</v>
@@ -3802,44 +3795,44 @@
       <c r="G108" s="36"/>
     </row>
     <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>8</v>
+      <c r="A109" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G109" s="36"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>155</v>
+        <v>71</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="G110" s="36"/>
     </row>
@@ -3848,114 +3841,114 @@
         <v>4</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>156</v>
+        <v>47</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="G111" s="36"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A112" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G112" s="36"/>
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G112" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H112" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="I112" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="J112" s="36" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>156</v>
+        <v>71</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>152</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="F113" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G113" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="H113" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="I113" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="J113" s="36" t="s">
-        <v>9</v>
-      </c>
+      <c r="G113" s="36"/>
     </row>
     <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B114" s="5" t="s">
+      <c r="A114" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C114" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D114" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F114" s="8" t="s">
-        <v>9</v>
+      <c r="C114" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G114" s="36"/>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G115" s="36"/>
     </row>
@@ -3964,21 +3957,24 @@
         <v>4</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>155</v>
+        <v>24</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G116" s="36"/>
+      <c r="H116" s="36"/>
+      <c r="I116" s="36"/>
+      <c r="J116" s="36"/>
     </row>
     <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
@@ -3988,21 +3984,18 @@
         <v>18</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>156</v>
+        <v>19</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="G117" s="36"/>
-      <c r="H117" s="36"/>
-      <c r="I117" s="36"/>
-      <c r="J117" s="36"/>
     </row>
     <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
@@ -4015,89 +4008,89 @@
         <v>19</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G118" s="36"/>
-    </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B119" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G118" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C119" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G119" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="H119" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="I119" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="J119" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B120" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C120" s="15" t="s">
+      <c r="H118" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="I118" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="J118" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D120" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="E120" s="15" t="s">
+      <c r="D119" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="E119" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="F119" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G119" s="38"/>
+    </row>
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E120" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F120" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G120" s="38"/>
-    </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E121" s="3" t="s">
+      <c r="F120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G120" s="36"/>
+    </row>
+    <row r="121" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D121" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="E121" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F121" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G121" s="36"/>
+      <c r="F121" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G121" s="38"/>
     </row>
     <row r="122" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="15" t="s">
@@ -4107,39 +4100,39 @@
         <v>11</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E122" s="15" t="s">
         <v>13</v>
       </c>
       <c r="F122" s="25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G122" s="38"/>
     </row>
-    <row r="123" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B123" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C123" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="D123" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="E123" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F123" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G123" s="38"/>
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G123" s="36"/>
     </row>
     <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
@@ -4149,79 +4142,79 @@
         <v>11</v>
       </c>
       <c r="C124" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G124" s="36"/>
+    </row>
+    <row r="125" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D124" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G124" s="36"/>
-    </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G125" s="36"/>
-    </row>
-    <row r="126" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B126" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C126" s="15" t="s">
+      <c r="D125" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="E125" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F125" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G125" s="40"/>
+    </row>
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D126" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="E126" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="F126" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G126" s="40"/>
+      <c r="D126" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G126" s="36"/>
     </row>
     <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>211</v>
+        <v>52</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G127" s="36"/>
     </row>
@@ -4233,66 +4226,66 @@
         <v>47</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>155</v>
+        <v>56</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G128" s="36"/>
+      <c r="G128" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H128" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="I128" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="J128" s="36" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G129" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H129" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="I129" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="J129" s="36" t="s">
-        <v>9</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G129" s="36"/>
     </row>
     <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>43</v>
+        <v>150</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>8</v>
@@ -4304,19 +4297,19 @@
         <v>4</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>107</v>
+        <v>52</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G131" s="36"/>
     </row>
@@ -4325,16 +4318,16 @@
         <v>4</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>155</v>
+        <v>16</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>9</v>
@@ -4349,16 +4342,16 @@
         <v>11</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>134</v>
+        <v>150</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G133" s="36"/>
     </row>
@@ -4370,132 +4363,132 @@
         <v>11</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G134" s="36"/>
+        <v>9</v>
+      </c>
+      <c r="G134" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="H134" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="I134" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="J134" s="36" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G135" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="H135" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="I135" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="J135" s="36" t="s">
-        <v>9</v>
-      </c>
+      <c r="A135" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G135" s="36"/>
     </row>
     <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C136" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D136" s="11" t="s">
-        <v>156</v>
+        <v>18</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>152</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F136" s="8" t="s">
-        <v>8</v>
+        <v>202</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="G136" s="36"/>
     </row>
     <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B137" s="5" t="s">
+      <c r="A137" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G137" s="36"/>
+    </row>
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F138" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G138" s="36"/>
+    </row>
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B139" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C137" s="8" t="s">
+      <c r="C139" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D137" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E137" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="F137" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G137" s="36"/>
-    </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G138" s="36"/>
-    </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D139" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F139" s="8" t="s">
-        <v>46</v>
+      <c r="D139" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G139" s="36"/>
     </row>
@@ -4507,99 +4500,103 @@
         <v>18</v>
       </c>
       <c r="C140" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G140" s="36"/>
+    </row>
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C141" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D141" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="E141" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F141" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G141" s="36"/>
+    </row>
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C142" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D140" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G140" s="36"/>
-    </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D141" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G141" s="36"/>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A142" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B142" s="29" t="s">
+      <c r="D142" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G142" s="36"/>
+    </row>
+    <row r="143" spans="1:11" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C142" s="29" t="s">
+      <c r="C143" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G143" s="36"/>
+      <c r="H143" s="37"/>
+      <c r="I143" s="37"/>
+      <c r="J143" s="37"/>
+      <c r="K143" s="10"/>
+    </row>
+    <row r="144" spans="1:11" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B144" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C144" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D142" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="E142" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="F142" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G142" s="36"/>
-    </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F143" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G143" s="36"/>
-    </row>
-    <row r="144" spans="1:11" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F144" s="1" t="s">
+      <c r="D144" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="E144" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="F144" s="30" t="s">
         <v>9</v>
       </c>
       <c r="G144" s="36"/>
@@ -4613,19 +4610,19 @@
         <v>4</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>223</v>
+        <v>47</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>236</v>
+        <v>146</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G145" s="36"/>
       <c r="H145" s="37"/>
@@ -4633,447 +4630,439 @@
       <c r="J145" s="37"/>
       <c r="K145" s="10"/>
     </row>
-    <row r="146" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B146" s="29" t="s">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C146" s="29" t="s">
+      <c r="C146" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G146" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H146" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="I146" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="J146" s="36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C147" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D146" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="E146" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="F146" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G146" s="36"/>
-      <c r="H146" s="37"/>
-      <c r="I146" s="37"/>
-      <c r="J146" s="37"/>
-      <c r="K146" s="10"/>
-    </row>
-    <row r="147" spans="1:11" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F147" s="1" t="s">
+      <c r="D147" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="E147" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F147" s="30" t="s">
         <v>9</v>
       </c>
       <c r="G147" s="36"/>
-      <c r="H147" s="37"/>
-      <c r="I147" s="37"/>
-      <c r="J147" s="37"/>
-      <c r="K147" s="10"/>
     </row>
     <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F148" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G148" s="36"/>
+    </row>
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G149" s="36"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A150" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G150" s="36"/>
+    </row>
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G151" s="36"/>
+    </row>
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G152" s="36"/>
+    </row>
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G153" s="36"/>
+    </row>
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F154" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G148" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="H148" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="I148" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="J148" s="36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B149" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C149" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D149" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="E149" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="F149" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G149" s="36"/>
-    </row>
-    <row r="150" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E150" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G150" s="36"/>
-    </row>
-    <row r="151" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G151" s="36"/>
-    </row>
-    <row r="152" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E152" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G152" s="36"/>
-    </row>
-    <row r="153" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D153" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E153" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F153" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G153" s="36"/>
-    </row>
-    <row r="154" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="G154" s="36"/>
     </row>
-    <row r="155" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C155" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>154</v>
+      <c r="C155" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G155" s="36"/>
     </row>
-    <row r="156" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="G156" s="36"/>
     </row>
-    <row r="157" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>125</v>
+        <v>47</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G157" s="36"/>
     </row>
-    <row r="158" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C158" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>154</v>
+      <c r="C158" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G158" s="36"/>
-    </row>
-    <row r="159" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="G158" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H158" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="I158" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="J158" s="36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C159" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>244</v>
+      <c r="C159" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G159" s="36"/>
-    </row>
-    <row r="160" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="G159" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H159" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="I159" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="J159" s="36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>66</v>
+        <v>83</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G160" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="H160" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="I160" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="J160" s="36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="G160" s="36"/>
+    </row>
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G161" s="36" t="s">
+      <c r="G161" s="36"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A162" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G162" s="36"/>
+    </row>
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G163" s="36"/>
+    </row>
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B164" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H161" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="I161" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="J161" s="36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G162" s="36"/>
-    </row>
-    <row r="163" spans="1:10" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F163" s="1" t="s">
+      <c r="C164" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F164" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G163" s="36"/>
-    </row>
-    <row r="164" spans="1:10" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E164" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="G164" s="36"/>
     </row>
-    <row r="165" spans="1:10" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="10" t="s">
         <v>4</v>
       </c>
@@ -5081,338 +5070,338 @@
         <v>83</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G165" s="36"/>
     </row>
-    <row r="166" spans="1:10" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G166" s="36"/>
     </row>
-    <row r="167" spans="1:10" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B167" s="3" t="s">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F167" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G167" s="36"/>
+    </row>
+    <row r="168" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B168" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C168" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E168" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="F168" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G168" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H168" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="I168" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="J168" s="38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G169" s="36"/>
+    </row>
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G170" s="36"/>
+    </row>
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B171" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C167" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G167" s="36"/>
-    </row>
-    <row r="168" spans="1:10" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C168" s="3" t="s">
+      <c r="C171" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G171" s="36"/>
+    </row>
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G172" s="36"/>
+    </row>
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D173" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D168" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E168" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F168" s="1" t="s">
+      <c r="E173" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F173" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G168" s="36"/>
-    </row>
-    <row r="169" spans="1:10" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B169" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C169" s="5" t="s">
+      <c r="G173" s="36"/>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A174" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G174" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H174" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="I174" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="D169" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E169" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F169" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G169" s="36"/>
-    </row>
-    <row r="170" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B170" s="15" t="s">
+      <c r="J174" s="36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A175" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G175" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C170" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D170" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E170" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="F170" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="G170" s="38" t="s">
+      <c r="H175" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="I175" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="J175" s="36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G176" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="H170" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="I170" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="J170" s="38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E171" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G171" s="36"/>
-    </row>
-    <row r="172" spans="1:10" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D172" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G172" s="36"/>
-    </row>
-    <row r="173" spans="1:10" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E173" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G173" s="36"/>
-    </row>
-    <row r="174" spans="1:10" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E174" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G174" s="36"/>
-    </row>
-    <row r="175" spans="1:10" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D175" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E175" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G175" s="36"/>
-    </row>
-    <row r="176" spans="1:10" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E176" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G176" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="H176" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="I176" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="J176" s="36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E177" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G177" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="H177" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="I177" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="J177" s="36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B178" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D178" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E178" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F178" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G178" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H178" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="I178" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="J178" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="K178" s="12"/>
-    </row>
-    <row r="179" spans="1:11" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H176" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="I176" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="J176" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="K176" s="12"/>
+    </row>
+    <row r="177" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B177" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C177" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D177" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="E177" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="F177" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G177" s="38"/>
+    </row>
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G178" s="36"/>
+    </row>
+    <row r="179" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="15" t="s">
         <v>4</v>
       </c>
@@ -5420,10 +5409,10 @@
         <v>11</v>
       </c>
       <c r="C179" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D179" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E179" s="15" t="s">
         <v>14</v>
@@ -5433,91 +5422,91 @@
       </c>
       <c r="G179" s="38"/>
     </row>
-    <row r="180" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E180" s="3" t="s">
+    <row r="180" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B180" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C180" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D180" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E180" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F180" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G180" s="36"/>
-    </row>
-    <row r="181" spans="1:11" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B181" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C181" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D181" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="E181" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F181" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G181" s="38"/>
-    </row>
-    <row r="182" spans="1:11" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B182" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C182" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="D182" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="E182" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F182" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G182" s="38"/>
-    </row>
-    <row r="183" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F180" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G180" s="38"/>
+    </row>
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G181" s="36"/>
+    </row>
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G182" s="36"/>
+    </row>
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>217</v>
+        <v>67</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G183" s="36"/>
     </row>
-    <row r="184" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="10" t="s">
         <v>4</v>
       </c>
@@ -5525,20 +5514,31 @@
         <v>47</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>155</v>
+        <v>56</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G184" s="36"/>
-    </row>
-    <row r="185" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G184" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H184" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="I184" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="J184" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="10" t="s">
         <v>4</v>
       </c>
@@ -5546,163 +5546,153 @@
         <v>47</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G185" s="36"/>
-    </row>
-    <row r="186" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G185" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H185" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="I185" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="J185" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G186" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H186" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="I186" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="J186" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G186" s="36"/>
+    </row>
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E187" s="3" t="s">
-        <v>65</v>
+        <v>150</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G187" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H187" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="I187" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="J187" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G187" s="36"/>
+    </row>
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B188" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G188" s="36"/>
+    </row>
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G189" s="36"/>
+    </row>
+    <row r="190" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B190" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D190" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="E190" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="F190" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G190" s="36"/>
+      <c r="K190" s="51"/>
+    </row>
+    <row r="191" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B191" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C188" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E188" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G188" s="36"/>
-    </row>
-    <row r="189" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G189" s="36"/>
-    </row>
-    <row r="190" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E190" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G190" s="36"/>
-    </row>
-    <row r="191" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E191" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F191" s="1" t="s">
+      <c r="C191" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D191" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="E191" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F191" s="32" t="s">
         <v>8</v>
       </c>
       <c r="G191" s="36"/>
@@ -5712,38 +5702,37 @@
         <v>4</v>
       </c>
       <c r="B192" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D192" s="20" t="s">
-        <v>154</v>
+        <v>18</v>
+      </c>
+      <c r="C192" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D192" s="47" t="s">
+        <v>152</v>
       </c>
       <c r="E192" s="20" t="s">
-        <v>240</v>
+        <v>23</v>
       </c>
       <c r="F192" s="32" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="G192" s="36"/>
-      <c r="K192" s="51"/>
     </row>
     <row r="193" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B193" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C193" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D193" s="47" t="s">
-        <v>156</v>
+        <v>11</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="E193" s="20" t="s">
-        <v>20</v>
+        <v>226</v>
       </c>
       <c r="F193" s="32" t="s">
         <v>8</v>
@@ -5755,16 +5744,16 @@
         <v>4</v>
       </c>
       <c r="B194" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C194" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D194" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="E194" s="20" t="s">
-        <v>23</v>
+        <v>71</v>
+      </c>
+      <c r="C194" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D194" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E194" s="17" t="s">
+        <v>124</v>
       </c>
       <c r="F194" s="32" t="s">
         <v>46</v>
@@ -5772,22 +5761,22 @@
       <c r="G194" s="36"/>
     </row>
     <row r="195" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B195" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E195" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="F195" s="32" t="s">
+      <c r="A195" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B195" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C195" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="D195" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E195" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F195" s="33" t="s">
         <v>8</v>
       </c>
       <c r="G195" s="36"/>
@@ -5797,341 +5786,338 @@
         <v>4</v>
       </c>
       <c r="B196" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>225</v>
+        <v>47</v>
+      </c>
+      <c r="C196" s="20" t="s">
+        <v>48</v>
       </c>
       <c r="D196" s="20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E196" s="20" t="s">
-        <v>242</v>
+        <v>55</v>
       </c>
       <c r="F196" s="32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G196" s="36"/>
-    </row>
-    <row r="197" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B197" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C197" s="17" t="s">
+      <c r="K196" s="51"/>
+    </row>
+    <row r="197" spans="1:11" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B197" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C197" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="D197" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="E197" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="F197" s="32" t="s">
+      <c r="D197" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E197" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F197" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G197" s="40"/>
+      <c r="H197" s="40"/>
+      <c r="I197" s="40"/>
+      <c r="K197" s="34" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B198" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C198" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D198" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="E198" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F198" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G198" s="36"/>
+      <c r="H198" s="40"/>
+      <c r="I198" s="40"/>
+      <c r="K198" s="51"/>
+    </row>
+    <row r="199" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B199" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C199" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D199" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E199" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F199" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="G197" s="36"/>
-    </row>
-    <row r="198" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B198" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C198" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="D198" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="E198" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F198" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G198" s="36"/>
-    </row>
-    <row r="199" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B199" s="20" t="s">
+      <c r="G199" s="36"/>
+      <c r="H199" s="40"/>
+      <c r="I199" s="40"/>
+      <c r="K199" s="51"/>
+    </row>
+    <row r="200" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B200" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C199" s="20" t="s">
+      <c r="C200" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D199" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="E199" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="F199" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="G199" s="36"/>
-      <c r="K199" s="51"/>
-    </row>
-    <row r="200" spans="1:11" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B200" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C200" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D200" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="E200" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="F200" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="G200" s="40"/>
-      <c r="H200" s="40"/>
+      <c r="D200" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="E200" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F200" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G200" s="36"/>
       <c r="I200" s="40"/>
-      <c r="K200" s="34" t="s">
-        <v>164</v>
-      </c>
+      <c r="K200" s="35"/>
     </row>
     <row r="201" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A201" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B201" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C201" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D201" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="E201" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="F201" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G201" s="36"/>
+      <c r="I201" s="40"/>
+      <c r="K201" s="35"/>
+    </row>
+    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B202" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C201" s="20" t="s">
+      <c r="C202" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D202" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="E202" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="F202" s="54" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F203" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D204" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F204" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D205" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D206" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="B207" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C207" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D201" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="E201" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F201" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="G201" s="36"/>
-      <c r="H201" s="40"/>
-      <c r="I201" s="40"/>
-      <c r="K201" s="51"/>
-    </row>
-    <row r="202" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B202" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C202" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="D202" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="E202" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F202" s="33" t="s">
+      <c r="D207" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="E207" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F207" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="G202" s="36"/>
-      <c r="H202" s="40"/>
-      <c r="I202" s="40"/>
-      <c r="K202" s="51"/>
-    </row>
-    <row r="203" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B203" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C203" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D203" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="E203" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F203" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="G203" s="36"/>
-      <c r="I203" s="40"/>
-      <c r="K203" s="35"/>
-    </row>
-    <row r="204" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B204" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C204" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D204" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="E204" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="F204" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="G204" s="36"/>
-      <c r="I204" s="40"/>
-      <c r="K204" s="35"/>
-    </row>
-    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="B205" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C205" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="D205" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="E205" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="F205" s="54" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F206" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B207" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C207" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D207" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F207" s="5" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B208" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C208" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D208" s="7" t="s">
-        <v>156</v>
+      <c r="A208" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="E208" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E210" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F208" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="B209" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C209" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D209" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F209" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="B210" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C210" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D210" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="E210" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F210" s="30" t="s">
-        <v>46</v>
+      <c r="F210" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D211" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>14</v>
+        <v>155</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>8</v>
@@ -6139,19 +6125,19 @@
     </row>
     <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D212" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>13</v>
+        <v>155</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>8</v>
@@ -6159,27 +6145,27 @@
     </row>
     <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B213" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C213" s="3" t="s">
-        <v>145</v>
+        <v>155</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E213" s="3" t="s">
-        <v>187</v>
+        <v>150</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>11</v>
@@ -6188,443 +6174,443 @@
         <v>15</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E214" s="4" t="s">
-        <v>216</v>
+        <v>150</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D215" s="3" t="s">
-        <v>154</v>
+      <c r="A215" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E216" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="F216" s="1" t="s">
-        <v>8</v>
+      <c r="A216" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="B216" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C216" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D216" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="E216" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="F216" s="30" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D217" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F217" s="1" t="s">
-        <v>8</v>
+        <v>155</v>
+      </c>
+      <c r="B217" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C217" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D217" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E217" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F217" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B218" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C218" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D218" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E218" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F218" s="1" t="s">
+      <c r="A218" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D218" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F218" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="B219" s="30" t="s">
+      <c r="A219" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B219" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C219" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D219" s="56" t="s">
-        <v>156</v>
+      <c r="C219" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D219" s="57" t="s">
+        <v>152</v>
       </c>
       <c r="E219" s="30" t="s">
-        <v>185</v>
+        <v>34</v>
       </c>
       <c r="F219" s="30" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B220" s="10" t="s">
+      <c r="A220" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="B220" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C220" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D220" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E220" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="F220" s="10" t="s">
-        <v>46</v>
-      </c>
+      <c r="C220" s="55"/>
     </row>
     <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="B221" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C221" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D221" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E221" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F221" s="5" t="s">
-        <v>8</v>
+      <c r="A221" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="B221" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C221" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D221" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="E221" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F221" s="30" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="B222" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C222" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D222" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="E222" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F222" s="30" t="s">
-        <v>8</v>
+      <c r="A222" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="B223" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C223" s="55"/>
+        <v>155</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="B224" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="B224" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C224" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D224" s="30" t="s">
-        <v>155</v>
+      <c r="C224" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="E224" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C225" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F224" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="B225" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C225" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="D225" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E225" s="3" t="s">
-        <v>192</v>
+        <v>151</v>
+      </c>
+      <c r="E225" s="58" t="s">
+        <v>220</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="B226" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C226" s="3" t="s">
-        <v>86</v>
+      <c r="A226" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E226" s="3" t="s">
-        <v>72</v>
+        <v>152</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="B227" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C227" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D227" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E227" s="30" t="s">
-        <v>78</v>
+      <c r="A227" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="F227" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G227" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H227" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="I227" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="J227" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B228" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C228" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D228" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E228" s="58" t="s">
-        <v>213</v>
+        <v>155</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="F228" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G228" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H228" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="I228" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="J228" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D229" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F229" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="D229" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="E229" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="F229" s="30" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B230" s="1" t="s">
+      <c r="A230" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="B230" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C230" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F230" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G230" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H230" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="I230" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="J230" s="36" t="s">
-        <v>9</v>
+      <c r="C230" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D230" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="E230" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F230" s="30" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>189</v>
+        <v>74</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G231" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H231" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="I231" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="J231" s="36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D232" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="E232" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="F232" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F232" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="B233" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C233" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D233" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="E233" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="F233" s="30" t="s">
+      <c r="A233" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F233" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B234" s="1" t="s">
+      <c r="A234" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B234" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C234" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F234" s="1" t="s">
-        <v>8</v>
+      <c r="C234" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D234" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="E234" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="F234" s="30" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B235" s="1" t="s">
+      <c r="A235" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="B235" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="C235" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>73</v>
+      <c r="C235" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="D235" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>8</v>
@@ -6632,59 +6618,59 @@
     </row>
     <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B236" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C236" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D236" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E236" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F236" s="1" t="s">
-        <v>8</v>
+        <v>155</v>
+      </c>
+      <c r="B236" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C236" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D236" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E236" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F236" s="10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="4" t="s">
-        <v>159</v>
+      <c r="A237" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D237" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="E237" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="F237" s="30" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E237" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="56" t="s">
-        <v>159</v>
-      </c>
-      <c r="B238" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="C238" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="D238" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="E238" s="3" t="s">
-        <v>77</v>
+      <c r="A238" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E238" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>8</v>
@@ -6692,39 +6678,39 @@
     </row>
     <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B239" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C239" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D239" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="E239" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F239" s="10" t="s">
-        <v>9</v>
+        <v>128</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E239" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B240" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C240" s="4" t="s">
-        <v>15</v>
+      <c r="C240" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>8</v>
@@ -6732,19 +6718,19 @@
     </row>
     <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B241" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>8</v>
@@ -6752,19 +6738,19 @@
     </row>
     <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B242" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C242" s="2" t="s">
-        <v>225</v>
+      <c r="C242" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>8</v>
@@ -6772,39 +6758,39 @@
     </row>
     <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>225</v>
+        <v>83</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>227</v>
+        <v>81</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="10" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="B244" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>13</v>
+        <v>188</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>8</v>
@@ -6812,19 +6798,19 @@
     </row>
     <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="10" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="B245" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>8</v>
@@ -6832,39 +6818,39 @@
     </row>
     <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="10" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B247" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>8</v>
@@ -6872,151 +6858,151 @@
     </row>
     <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B248" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>15</v>
+        <v>189</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="B249" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C249" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E249" s="4" t="s">
-        <v>13</v>
+        <v>175</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D249" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="B250" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C250" s="4" t="s">
-        <v>12</v>
+        <v>175</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E250" s="4" t="s">
-        <v>14</v>
+        <v>151</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G250" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H250" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="I250" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="J250" s="36" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B251" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>194</v>
+        <v>15</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E251" s="4" t="s">
-        <v>14</v>
+        <v>150</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="F251" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B252" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C252" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D252" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="E252" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="F252" s="30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D252" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E252" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F252" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D253" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>189</v>
+        <v>4</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G253" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H253" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="I253" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="J253" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="10" t="s">
-        <v>179</v>
+        <v>4</v>
       </c>
       <c r="B254" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C254" s="4" t="s">
-        <v>15</v>
+      <c r="C254" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>136</v>
+        <v>150</v>
+      </c>
+      <c r="E254" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>8</v>
@@ -7026,59 +7012,59 @@
       <c r="A255" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B255" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C255" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D255" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="E255" s="30" t="s">
-        <v>205</v>
+      <c r="B255" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C255" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="D255" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="E255" s="56" t="s">
+        <v>192</v>
       </c>
       <c r="F255" s="30" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B256" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C256" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D256" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E256" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F256" s="1" t="s">
-        <v>9</v>
+      <c r="A256" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B256" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C256" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="D256" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="E256" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="F256" s="30" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B257" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E257" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="F257" s="1" t="s">
+      <c r="A257" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B257" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C257" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="D257" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="E257" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="F257" s="30" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7090,13 +7076,13 @@
         <v>11</v>
       </c>
       <c r="C258" s="56" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D258" s="30" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E258" s="56" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F258" s="30" t="s">
         <v>8</v>
@@ -7110,13 +7096,13 @@
         <v>11</v>
       </c>
       <c r="C259" s="56" t="s">
-        <v>196</v>
+        <v>15</v>
       </c>
       <c r="D259" s="30" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E259" s="56" t="s">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="F259" s="30" t="s">
         <v>8</v>
@@ -7130,75 +7116,75 @@
         <v>11</v>
       </c>
       <c r="C260" s="56" t="s">
-        <v>196</v>
+        <v>15</v>
       </c>
       <c r="D260" s="30" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E260" s="56" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F260" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B261" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="C261" s="56" t="s">
-        <v>196</v>
-      </c>
-      <c r="D261" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="E261" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="F261" s="30" t="s">
+      <c r="A261" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E261" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F261" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B262" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="C262" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="D262" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="E262" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="F262" s="30" t="s">
+      <c r="A262" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E262" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F262" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B263" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="C263" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="D263" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="E263" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="F263" s="30" t="s">
+      <c r="A263" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C263" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D263" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E263" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="F263" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7213,10 +7199,10 @@
         <v>94</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E264" s="4" t="s">
-        <v>110</v>
+        <v>223</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>8</v>
@@ -7233,374 +7219,497 @@
         <v>94</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E265" s="4" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="F265" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B266" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C266" s="6" t="s">
+      <c r="A266" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C266" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D266" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E266" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="F266" s="6" t="s">
+      <c r="D266" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E266" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F266" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B267" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C267" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D267" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E267" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F267" s="1" t="s">
-        <v>8</v>
+      <c r="A267" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C267" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D267" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E267" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F267" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B268" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C268" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D268" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E268" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F268" s="1" t="s">
+      <c r="A268" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D268" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F268" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B269" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C269" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D269" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E269" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F269" s="1" t="s">
-        <v>8</v>
+      <c r="A269" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D269" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F269" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B270" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C270" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D270" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E270" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="F270" s="5" t="s">
-        <v>46</v>
+      <c r="A270" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A271" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B271" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C271" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D271" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E271" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F271" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B272" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C272" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D272" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E272" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F272" s="5" t="s">
+      <c r="A271" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E271" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="B272" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C272" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D272" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="E272" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="F272" s="32" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D273" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E273" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F273" s="1" t="s">
-        <v>9</v>
+      <c r="A273" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="B273" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D273" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="E273" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="F273" s="30" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B274" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C274" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D274" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E274" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="F274" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="B274" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D274" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="E274" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="F274" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="B275" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C275" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D275" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="E275" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="F275" s="32" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E275" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="F275" s="30" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="55" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B276" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C276" s="56" t="s">
-        <v>223</v>
+      <c r="C276" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="D276" s="30" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E276" s="56" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F276" s="30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="B277" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="C277" s="56" t="s">
-        <v>225</v>
-      </c>
-      <c r="D277" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="E277" s="56" t="s">
-        <v>226</v>
-      </c>
-      <c r="F277" s="30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D278" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E278" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="F278" s="30" t="s">
-        <v>8</v>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A277" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A278" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B279" s="3" t="s">
+      <c r="A279" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C279" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D279" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E279" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B280" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C279" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D279" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E279" s="59" t="s">
-        <v>209</v>
-      </c>
-      <c r="F279" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="B280" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="C280" s="56" t="s">
-        <v>223</v>
-      </c>
-      <c r="D280" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="E280" s="56" t="s">
-        <v>224</v>
+      <c r="C280" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E280" s="58" t="s">
+        <v>221</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B281" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C281" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D281" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E281" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="F281" s="1" t="s">
-        <v>9</v>
+        <v>155</v>
+      </c>
+      <c r="B281" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C281" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D281" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E281" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="F281" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B282" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E282" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C283" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E283" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C285" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E285" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E286" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A287" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E287" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B288" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C282" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D282" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E282" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F282" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B283" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C283" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D283" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E283" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="F283" s="1" t="s">
-        <v>8</v>
+      <c r="C288" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E288" s="58" t="s">
+        <v>200</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A289" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K283" xr:uid="{8B1360B6-23BC-4F49-9C86-2B3B194A8FE8}">
+  <autoFilter ref="A1:K288" xr:uid="{8B1360B6-23BC-4F49-9C86-2B3B194A8FE8}">
     <filterColumn colId="0">
       <filters>
         <filter val="Tillage"/>
@@ -7608,17 +7717,12 @@
     </filterColumn>
     <filterColumn colId="1">
       <filters>
-        <filter val="Pests"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Weeds"/>
+        <filter val="Climate Mitigation"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K204">
-    <sortCondition ref="A2:A204"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K201">
+    <sortCondition ref="A2:A201"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/normative-effects.xlsx
+++ b/data/normative-effects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephen.wood/Box Sync/Work/The Nature Conservancy/Global Soils/AgEvidence/code-and-data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFC0C7C-F1FD-294A-ACAC-5882CAF2E788}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585DA4D8-508A-8044-AE07-24FCAE87876B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="500" windowWidth="26280" windowHeight="16620" xr2:uid="{E2614878-5E79-439B-BF47-44ECB7DBED54}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$288</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$289</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1328,9 +1328,9 @@
   <dimension ref="A1:K289"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E290" sqref="E290"/>
+      <selection pane="bottomLeft" activeCell="D290" sqref="D290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="G96" s="36"/>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>128</v>
       </c>
@@ -3708,7 +3708,7 @@
       </c>
       <c r="G104" s="36"/>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="28" t="s">
         <v>128</v>
       </c>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="G114" s="36"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
         <v>4</v>
       </c>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="G149" s="36"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="10" t="s">
         <v>4</v>
       </c>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="G161" s="36"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="10" t="s">
         <v>4</v>
       </c>
@@ -5262,7 +5262,7 @@
       </c>
       <c r="G173" s="36"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="10" t="s">
         <v>4</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="10" t="s">
         <v>4</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" s="10" t="s">
         <v>128</v>
       </c>
@@ -6766,8 +6766,8 @@
       <c r="C243" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D243" s="1" t="s">
-        <v>150</v>
+      <c r="D243" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="E243" s="4" t="s">
         <v>81</v>
@@ -6968,7 +6968,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="10" t="s">
         <v>4</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="10" t="s">
         <v>4</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="10" t="s">
         <v>4</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="10" t="s">
         <v>4</v>
       </c>
@@ -7709,15 +7709,15 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K288" xr:uid="{8B1360B6-23BC-4F49-9C86-2B3B194A8FE8}">
+  <autoFilter ref="A1:K289" xr:uid="{8B1360B6-23BC-4F49-9C86-2B3B194A8FE8}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Tillage"/>
+        <filter val="Nutrient Management"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
       <filters>
-        <filter val="Climate Mitigation"/>
+        <filter val="Water Quality"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/data/normative-effects.xlsx
+++ b/data/normative-effects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephen.wood/Box Sync/Work/The Nature Conservancy/Global Soils/AgEvidence/code-and-data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585DA4D8-508A-8044-AE07-24FCAE87876B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8424F3-EC5C-7747-962F-BC658B8C8B0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="500" windowWidth="26280" windowHeight="16620" xr2:uid="{E2614878-5E79-439B-BF47-44ECB7DBED54}"/>
   </bookViews>
